--- a/scs.xlsx
+++ b/scs.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arwml\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93C0F739-86AC-4DA0-B04B-EEBD93B54F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F40A81-63F7-4655-92EA-4D09C0E4F142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{67019B03-F1A0-410D-9686-FED7C8D87B25}"/>
   </bookViews>
   <sheets>
     <sheet name="SCS" sheetId="1" r:id="rId1"/>
+    <sheet name="prompt" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="営業">[1]step2!#REF!</definedName>
@@ -42,10 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>各種コンプライアンスフレームワークに沿った監査レポート作成を自動化するサービス。</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Audit Manager</t>
   </si>
@@ -56,15 +54,9 @@
     <t>CloudFormation StackSets</t>
   </si>
   <si>
-    <t>マルチアカウント環境をセットアップ・管理し、ガバナンスを強制できる、Landing Zone支援サービス。</t>
-  </si>
-  <si>
     <t>Control Tower</t>
   </si>
   <si>
-    <t>CloudTrailやVPC Flow Logsなどを分析し、インシデントの根本原因を調査する支援を行う。</t>
-  </si>
-  <si>
     <t>Detective</t>
   </si>
   <si>
@@ -74,15 +66,9 @@
     <t>Security Hub</t>
   </si>
   <si>
-    <t>AWS上の脅威を継続的に検出する脅威検出サービス。ログを分析して異常な動きを警告。</t>
-  </si>
-  <si>
     <t>GuardDuty</t>
   </si>
   <si>
-    <t>セキュリティやコスト最適化などの観点から、ベストプラクティスに基づく助言を提供するツール。</t>
-  </si>
-  <si>
     <t>Trusted Advisor</t>
   </si>
   <si>
@@ -92,9 +78,6 @@
     <t>Athena</t>
   </si>
   <si>
-    <t>EC2やコンテナの脆弱性を自動検出し、セキュリティリスクをレポートするスキャニングサービス。</t>
-  </si>
-  <si>
     <t>Inspector</t>
   </si>
   <si>
@@ -104,49 +87,25 @@
     <t>X-Ray</t>
   </si>
   <si>
-    <t>AWSアカウント内でのAPIコールや操作履歴を記録・確認できる、監査と調査のためのサービス。</t>
-  </si>
-  <si>
     <t>CloudTrail</t>
   </si>
   <si>
-    <t>AWSリソースの設定変更を追跡・記録し、コンプライアンスチェックを自動で行う監査サービス。</t>
-  </si>
-  <si>
     <t>Config</t>
   </si>
   <si>
-    <t>システム設定やパスワードなどの構成情報を保存・参照できる、Systems Managerの一部。</t>
-  </si>
-  <si>
     <t>Parameter Store</t>
   </si>
   <si>
-    <t>アプリのシークレット情報（DBパスなど）を安全に保存・ローテーション・取得するサービス。</t>
-  </si>
-  <si>
     <t>Secrets Manager</t>
   </si>
   <si>
-    <t>ハードウェアベースの専用HSMを提供。高いセキュリティで鍵管理を行いたい場合に使用。</t>
-  </si>
-  <si>
     <t>CloudHSM</t>
   </si>
   <si>
-    <t>暗号鍵を安全に管理・使用するサービス。データ暗号化や復号に使われ、アクセス制御も可能。</t>
-  </si>
-  <si>
     <t>KMS</t>
   </si>
   <si>
-    <t>VPC内のDNSクエリを処理するサービスで、オンプレミスとのDNS解決も可能にする。</t>
-  </si>
-  <si>
     <t>Route53 Resolver</t>
-  </si>
-  <si>
-    <t>DDoS攻撃からアプリケーションを保護するサービス。Standardは自動適用、Advancedは追加保護あり。</t>
   </si>
   <si>
     <t>Shield</t>
@@ -159,18 +118,1102 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サービス名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
+    <r>
+      <t>CloudTrailやVPC Flow Logsなどを分析し、インシデントの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>根本原因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を調査する支援を行う。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>各種コンプライアンスフレームワークに沿った</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>監査レポート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>作成を自動化するサービス。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>マルチアカウント環境をセットアップ・管理し、ガバナンスを強制できる、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Landing Zone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>支援サービス。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>AWS上の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>脅威を継続的に検出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>する脅威検出サービス。ログを分析して異常な動きを警告。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>セキュリティやコスト最適化などの観点から、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ベストプラクティス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に基づく助言を提供するツール。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>EC2やコンテナの脆弱性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を自動検出し、セキュリティリスクをレポートするスキャニングサービス。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>AWSアカウント内でのAPIコールや</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>操作履歴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を記録・確認できる、監査と調査のためのサービス。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>AWSリソースの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>設定変更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を追跡・記録し、コンプライアンスチェックを自動で行う監査サービス。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>アプリのシークレット情報（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>DBパス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>など）を安全に保存・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ローテーション</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・取得するサービス。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>システム設定や</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>パスワード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>などの構成情報を保存・参照できる、Systems Managerの一部。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>安い。</t>
+    </r>
+    <rPh sb="48" eb="49">
+      <t>ヤス</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ハードウェアベース</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の専用HSMを提供。高いセキュリティで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>鍵管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を行いたい場合に使用。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>暗号鍵を安全に管理・使用するサービス。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データ暗号化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>や復号に使われ、アクセス制御も可能。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>VPC内のDNSクエリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を処理するサービスで、オンプレミスとのDNS解決も可能にする。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>DDoS攻撃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>からアプリケーションを保護するサービス。Standardは自動適用、Advancedは追加保護あり。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単語</t>
+    <rPh sb="0" eb="2">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCP</t>
+  </si>
+  <si>
+    <t>IAM アクセスアドバイザー</t>
+  </si>
+  <si>
+    <t>IAM アクセスアナライザー</t>
+  </si>
+  <si>
+    <t>principal</t>
+  </si>
+  <si>
+    <t>VPC エンドポイント</t>
+  </si>
+  <si>
+    <t>スイッチロール</t>
+  </si>
+  <si>
+    <t>assume Role</t>
+  </si>
+  <si>
+    <t>Gateway Load Balancer</t>
+  </si>
+  <si>
+    <t>SSM Automation</t>
+  </si>
+  <si>
+    <t>SSM Inventory</t>
+  </si>
+  <si>
+    <t>Kinesis Firehose</t>
+  </si>
+  <si>
+    <t>VPC FlowLogs</t>
+  </si>
+  <si>
+    <t>Vault Lock</t>
+  </si>
+  <si>
+    <t>Artifact Reports</t>
+  </si>
+  <si>
+    <t>Artifact Agreements</t>
+  </si>
+  <si>
+    <t>AWS Signer</t>
+  </si>
+  <si>
+    <t>エンベロープ暗号化</t>
+  </si>
+  <si>
+    <t>署名付きURL</t>
+  </si>
+  <si>
+    <t>署名付きCookie</t>
+  </si>
+  <si>
+    <t>Site-to-Site VPN</t>
+  </si>
+  <si>
+    <t>Cognito</t>
+  </si>
+  <si>
+    <t>Service Control Policy。組織単位での最大権限制御。IAMより上位で、許可しない限り実行できない。</t>
+  </si>
+  <si>
+    <t>IAM Identity Center</t>
+  </si>
+  <si>
+    <t>ユーザーの一元管理とSSOを提供。複数AWSアカウントへのアクセスを統合的に制御できる。</t>
+  </si>
+  <si>
+    <r>
+      <t>IAMポリシーが許可しているサービスの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>実際の使用状況</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を確認できる機能。不要権限の洗い出しに有効。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IAMリソースに対する</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>外部アクセスの可能性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を可視化するツール。セキュリティ監査に有用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IAMユーザー、ロール、フェデレーティッドユーザーなどの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>実行主体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のこと。アクセス制御の核。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AWSサービスへの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プライベート通信経路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を確立。インターネットを介さず安全にアクセス可能。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>他のIAMロールに</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一時的に切り替えて権限昇格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。多アカウント運用でよく使われる。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>特定のIAMロールを</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一時的に引き受ける操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。STSトークンにより、一時的なアクセスを実現。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>サードパーティ製の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ネットワークアプライアンス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を容易にスケーラブルにデプロイ可能にするELBの一種。</t>
+    </r>
+  </si>
+  <si>
+    <t>SSM Session Manager</t>
+  </si>
+  <si>
+    <r>
+      <t>EC2へ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>安全なシェル接続</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を提供。SSH不要でログ記録可能。監査性が高い。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>定型作業や修復処理を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自動化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。事前定義されたランブックやカスタムステップを実行可能。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EC2インスタンスの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ソフトウェア・設定情報を収集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>し、可視化・監査・パッチ適用に利用。</t>
+    </r>
+  </si>
+  <si>
+    <t>Kinesis Data Stream</t>
+  </si>
+  <si>
+    <r>
+      <t>高スループットな</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リアルタイムデータストリーミング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>サービス。独自アプリで分析可能。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ストリームデータを</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>S3やRedshiftなどへ自動送信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。設定簡易で運用コストが低い。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VPCのネットワークトラフィックを</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>キャプチャしてCloudWatch/S3に出力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。トラブル解析や監査に有効。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S3 Glacierの保管ポリシーを</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>変更不可能にロック</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。法的保持（WORM）要件に対応。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AWSの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第三者監査レポート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をダウンロード可能。コンプライアンス証明などで使用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>秘密保持契約（NDA）などの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>法的同意書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をAWSと締結し、機密レポートへのアクセスを許可する。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LambdaコードやDockerイメージなどを</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>デジタル署名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>するサービス。信頼性の担保が可能。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>データキーを使ってデータを暗号化し、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マスターキーでそのデータキー自体を暗号化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>する方式。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>時間制限付きの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一時的なS3アクセスURL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。外部ユーザーへの限定公開に利用される。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CloudFrontでのコンテンツ配信制御に使われる</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一時認証情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。複数ファイルへのアクセス制御が可能。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>オンプレとAWSを</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>暗号化されたIPsecトンネルで接続</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。ハイブリッド構成に使用。</t>
+    </r>
+  </si>
+  <si>
+    <t>VPC Network Access Analyzer</t>
+  </si>
+  <si>
+    <r>
+      <t>VPCのネットワークパスを解析し、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>意図しない通信経路を検出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。誤設定による漏洩を防止。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ユーザー認証・管理サービス。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザー登録、SNSログイン、認証トークン発行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を提供。</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -182,6 +1225,36 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -207,8 +1280,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -226,6 +1314,285 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77A2B274-AF35-B80E-6607-A831B6DA443C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2082800" y="1282700"/>
+          <a:ext cx="7480300" cy="3536950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>aws security sepeciality</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の試験を受けます。 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>以下の対象となる単語について、要点を整理し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>一覧表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作成して。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t># </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>制約事項</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>-  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>一言ずつ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>文字程度で説明して。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>-  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>重要箇所は太文字にして。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t># </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>対象となる単語 </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -610,10 +1977,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -627,155 +1994,371 @@
         <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7421E4-3E8D-4BD8-B04B-31E43EAC9375}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/scs.xlsx
+++ b/scs.xlsx
@@ -8,26 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arwml\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ACB3D7-D916-48D4-950C-0A95DDF4FF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48214674-8CB1-42DE-AE87-21371FE9D7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="210" windowWidth="18650" windowHeight="19840" xr2:uid="{67019B03-F1A0-410D-9686-FED7C8D87B25}"/>
+    <workbookView xWindow="830" yWindow="860" windowWidth="17510" windowHeight="19840" xr2:uid="{67019B03-F1A0-410D-9686-FED7C8D87B25}"/>
   </bookViews>
   <sheets>
     <sheet name="単語" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="対象ｻｰﾋﾞｽ" sheetId="3" r:id="rId3"/>
-    <sheet name="prompt" sheetId="2" r:id="rId4"/>
+    <sheet name="prompt" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="対象ｻｰﾋﾞｽ" sheetId="3" r:id="rId4"/>
+    <sheet name="動画" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">単語!$A$1:$B$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">単語!$A$1:$B$131</definedName>
     <definedName name="営業">[1]step2!#REF!</definedName>
     <definedName name="資材">[1]step2!#REF!</definedName>
     <definedName name="生産">[1]step2!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="448">
   <si>
     <t>Audit Manager</t>
   </si>
@@ -534,9 +536,6 @@
   </si>
   <si>
     <t>IAM Identity Center</t>
-  </si>
-  <si>
-    <t>ユーザーの一元管理とSSOを提供。複数AWSアカウントへのアクセスを統合的に制御できる。</t>
   </si>
   <si>
     <r>
@@ -2278,74 +2277,6 @@
     <t>VPCトラフィックミラーリング</t>
   </si>
   <si>
-    <r>
-      <t>VPC内の</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ネットワークトラフィックをコピー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>し、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>モニタリング・侵入検知ツールへ送信</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>できる機能。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>インシデント対応や脅威分析</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>に有効。</t>
-    </r>
-  </si>
-  <si>
     <t>IDS（侵入検知システム）</t>
   </si>
   <si>
@@ -3037,8 +2968,382 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>S3やDynamoDBに対して</t>
+    <t>FQDN（完全修飾ドメイン名）</t>
+  </si>
+  <si>
+    <r>
+      <t>ホスト名＋ドメイン名で構成された完全なDNS名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">。例: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>host.example.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VPCとインターネットの通信を中継するゲートウェイ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。ルートテーブル設定と組み合わせて利用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>プライベートサブネットのリソースがインターネットへアクセス可能にする</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ためのマネージドなサービス。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>既知の脆弱性情報を一意に識別するID（例: CVE-2023-0001）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。セキュリティ対応の基準になる。</t>
+    </r>
+  </si>
+  <si>
+    <t>TCP22</t>
+  </si>
+  <si>
+    <t>ブルートフォース攻撃</t>
+  </si>
+  <si>
+    <t>ホスト型IPS/IDSエージェント</t>
+  </si>
+  <si>
+    <t>ポリシーのaws:SourceVpce条件</t>
+  </si>
+  <si>
+    <r>
+      <t>SSH通信で使用されるポート番号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。開放時は不正アクセスや侵入リスクがあるため注意が必要。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>総当たりでパスワードを試行する攻撃手法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。ログイン試行の回数制限やMFAで防止できる。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>各インスタンス上で動作する侵入検知／防御エージェント</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。不審な挙動をリアルタイムに検出・対応。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>特定のVPCエンドポイント経由からのアクセスのみを許可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>するIAM/リソースポリシー条件キー。</t>
+    </r>
+  </si>
+  <si>
+    <t>IAMユーザがもつアクセスキー</t>
+  </si>
+  <si>
+    <t>BGPルート伝搬</t>
+  </si>
+  <si>
+    <r>
+      <t>プログラムからAWSへアクセスするための認証情報（Access Key IDとSecret Access Key）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。漏洩に注意。</t>
+    </r>
+  </si>
+  <si>
+    <t>VGW（仮想プライベートゲートウェイ）</t>
+  </si>
+  <si>
+    <r>
+      <t>オンプレミスとVPCをVPNやDirect Connectで接続するためのAWS側ゲートウェイ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VGWがBGP経由で学習したルート情報をVPCのルートテーブルに自動で反映する機能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。経路管理が効率的に。</t>
+    </r>
+  </si>
+  <si>
+    <t>aws ec2 describe-instances</t>
+  </si>
+  <si>
+    <r>
+      <t>EC2インスタンスの情報（ID、状態、タグなど）を取得するCLIコマンド</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。監査やインベントリ収集に活用。</t>
+    </r>
+  </si>
+  <si>
+    <t>グローバルCDN</t>
+  </si>
+  <si>
+    <t>Logs Insights</t>
+  </si>
+  <si>
+    <t>Amazon SES</t>
+  </si>
+  <si>
+    <t>Shield Advanced</t>
+  </si>
+  <si>
+    <t>port 443</t>
+  </si>
+  <si>
+    <t>DHCPオプションセット</t>
+  </si>
+  <si>
+    <t>CloudFormationスタック</t>
+  </si>
+  <si>
+    <t>S3 Vault Lock in-progress</t>
+  </si>
+  <si>
+    <t>Amazon WorkSpaces</t>
+  </si>
+  <si>
+    <r>
+      <t>マネージドな仮想デスクトップ（VDI）サービス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。認証、暗号化、ログ管理がセキュリティ対策の要点。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CloudFrontなどの世界規模のコンテンツ配信ネットワーク</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。DDoS対策やTLS暗号化に貢献。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CloudWatch Logsのクエリ機能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で、ログデータを効率的に検索・分析可能。監査証跡に活用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Eメール送信サービス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。認証（DKIM、SPF）設定がスパム防止・セキュリティ対策に重要。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>有料のDDoS防御サービス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。レイヤー3/4攻撃に加え、経済的損失保護や24/7のサポートを提供。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HTTPSで使われる標準ポート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。インターネット上の安全な通信に不可欠で、TLS暗号化に対応。</t>
+    </r>
+  </si>
+  <si>
+    <t>PFS (Perfect Forward Secrecy)</t>
+  </si>
+  <si>
+    <r>
+      <t>過去の通信内容が将来の秘密鍵漏洩でも解読されない暗号方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。TLSで採用される。</t>
+    </r>
+  </si>
+  <si>
+    <t>Amazon Provided DNS (.2アドレス)</t>
+  </si>
+  <si>
+    <r>
+      <t>VPC内のリゾルバIP（x.x.x.x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -3049,406 +3354,6 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>VPCから直接アクセス可能なゲートウェイ型エンドポイント</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。ルートテーブル設定が必要。</t>
-    </r>
-  </si>
-  <si>
-    <t>FQDN（完全修飾ドメイン名）</t>
-  </si>
-  <si>
-    <r>
-      <t>ホスト名＋ドメイン名で構成された完全なDNS名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">。例: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>host.example.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>VPCとインターネットの通信を中継するゲートウェイ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。ルートテーブル設定と組み合わせて利用。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>プライベートサブネットのリソースがインターネットへアクセス可能にする</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ためのマネージドなサービス。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>既知の脆弱性情報を一意に識別するID（例: CVE-2023-0001）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。セキュリティ対応の基準になる。</t>
-    </r>
-  </si>
-  <si>
-    <t>TCP22</t>
-  </si>
-  <si>
-    <t>ブルートフォース攻撃</t>
-  </si>
-  <si>
-    <t>ホスト型IPS/IDSエージェント</t>
-  </si>
-  <si>
-    <t>ポリシーのaws:SourceVpce条件</t>
-  </si>
-  <si>
-    <r>
-      <t>SSH通信で使用されるポート番号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。開放時は不正アクセスや侵入リスクがあるため注意が必要。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>総当たりでパスワードを試行する攻撃手法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。ログイン試行の回数制限やMFAで防止できる。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>各インスタンス上で動作する侵入検知／防御エージェント</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。不審な挙動をリアルタイムに検出・対応。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>特定のVPCエンドポイント経由からのアクセスのみを許可</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>するIAM/リソースポリシー条件キー。</t>
-    </r>
-  </si>
-  <si>
-    <t>IAMユーザがもつアクセスキー</t>
-  </si>
-  <si>
-    <t>BGPルート伝搬</t>
-  </si>
-  <si>
-    <r>
-      <t>プログラムからAWSへアクセスするための認証情報（Access Key IDとSecret Access Key）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。漏洩に注意。</t>
-    </r>
-  </si>
-  <si>
-    <t>VGW（仮想プライベートゲートウェイ）</t>
-  </si>
-  <si>
-    <r>
-      <t>オンプレミスとVPCをVPNやDirect Connectで接続するためのAWS側ゲートウェイ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>VGWがBGP経由で学習したルート情報をVPCのルートテーブルに自動で反映する機能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。経路管理が効率的に。</t>
-    </r>
-  </si>
-  <si>
-    <t>aws ec2 describe-instances</t>
-  </si>
-  <si>
-    <r>
-      <t>EC2インスタンスの情報（ID、状態、タグなど）を取得するCLIコマンド</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。監査やインベントリ収集に活用。</t>
-    </r>
-  </si>
-  <si>
-    <t>グローバルCDN</t>
-  </si>
-  <si>
-    <t>Logs Insights</t>
-  </si>
-  <si>
-    <t>Amazon SES</t>
-  </si>
-  <si>
-    <t>Shield Advanced</t>
-  </si>
-  <si>
-    <t>port 443</t>
-  </si>
-  <si>
-    <t>DHCPオプションセット</t>
-  </si>
-  <si>
-    <t>CloudFormationスタック</t>
-  </si>
-  <si>
-    <t>S3 Vault Lock in-progress</t>
-  </si>
-  <si>
-    <t>Amazon WorkSpaces</t>
-  </si>
-  <si>
-    <r>
-      <t>マネージドな仮想デスクトップ（VDI）サービス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。認証、暗号化、ログ管理がセキュリティ対策の要点。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CloudFrontなどの世界規模のコンテンツ配信ネットワーク</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。DDoS対策やTLS暗号化に貢献。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CloudWatch Logsのクエリ機能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>で、ログデータを効率的に検索・分析可能。監査証跡に活用。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Eメール送信サービス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。認証（DKIM、SPF）設定がスパム防止・セキュリティ対策に重要。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>有料のDDoS防御サービス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。レイヤー3/4攻撃に加え、経済的損失保護や24/7のサポートを提供。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>HTTPSで使われる標準ポート</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。インターネット上の安全な通信に不可欠で、TLS暗号化に対応。</t>
-    </r>
-  </si>
-  <si>
-    <t>PFS (Perfect Forward Secrecy)</t>
-  </si>
-  <si>
-    <r>
-      <t>過去の通信内容が将来の秘密鍵漏洩でも解読されない暗号方式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。TLSで採用される。</t>
-    </r>
-  </si>
-  <si>
-    <t>Amazon Provided DNS (.2アドレス)</t>
-  </si>
-  <si>
-    <r>
-      <t>VPC内のリゾルバIP（x.x.x.x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
       <t>2）</t>
     </r>
     <r>
@@ -3640,21 +3545,6 @@
         <charset val="128"/>
       </rPr>
       <t>。組織全体で一貫した監査が可能。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>AWS環境におけるセキュリティベストプラクティス基準</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。Security Hubで準拠状況のチェックが可能。</t>
     </r>
   </si>
   <si>
@@ -3893,6 +3783,1403 @@
       </rPr>
       <t>1024-65536</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インシデント発生時は
+・CloudFormationでフォレンジック環境作成。
+・StepFunctionsでデータ保護</t>
+    <rPh sb="6" eb="9">
+      <t>ハッセイジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Step Functions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ログインポータル。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザーの一元管理とSSOを提供。複数AWSアカウントへのアクセスを統合的に制御できる。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>VPC内の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ネットワークトラフィックをコピー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>し、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>IDS用EC2のENI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>へ送信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>できる機能。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>インシデント対応や脅威分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に有効。</t>
+    </r>
+    <rPh sb="26" eb="27">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォレンジック環境</t>
+  </si>
+  <si>
+    <r>
+      <t>証拠保全や調査</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を行う専用環境で、侵害後の分析や追跡に使用。ログの収集・保存・アクセス制限が厳密に管理されていることが重要。</t>
+    </r>
+  </si>
+  <si>
+    <t>サブスクリプションフィルター</t>
+  </si>
+  <si>
+    <r>
+      <t>CloudWatch Logs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> において、特定パターンのログを</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>KinesisやLambda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に転送するための仕組み。リアルタイム検知・処理に活用。</t>
+    </r>
+  </si>
+  <si>
+    <t>HIDS</t>
+  </si>
+  <si>
+    <r>
+      <t>ホスト型侵入検知システム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。インスタンス上で動作し、ファイル改ざんや異常な動作を監視。例：OSSECやAWS Inspector。</t>
+    </r>
+  </si>
+  <si>
+    <t>Glue</t>
+  </si>
+  <si>
+    <r>
+      <t>ETL処理を自動化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>するマネージドサービス。セキュリティ対策としては</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>暗号化設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>や</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アクセス制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の適切な設定が重要。</t>
+    </r>
+  </si>
+  <si>
+    <t>AD Connector</t>
+  </si>
+  <si>
+    <r>
+      <t>オンプレADとAWS IAM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を連携するブリッジ。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ディレクトリ同期せず</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、認証はオンプレ側で行われる。SSOや認証統合に活用。</t>
+    </r>
+  </si>
+  <si>
+    <t>双方向外部トラスト</t>
+  </si>
+  <si>
+    <r>
+      <t>オンプレADとAWS Managed Microsoft AD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>間の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>相互信頼関係</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。双方向でユーザー・グループの認証が可能になる。</t>
+    </r>
+  </si>
+  <si>
+    <t>Web ACL</t>
+  </si>
+  <si>
+    <r>
+      <t>AWS WAFのルールセット</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。特定のIP、URI、SQLインジェクションなどからWebアプリを保護。CloudFrontやALBと連携して使う。</t>
+    </r>
+  </si>
+  <si>
+    <t>DPI（ディープパケットインスペクション）</t>
+  </si>
+  <si>
+    <r>
+      <t>パケットの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>内容レベルまで解析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>する技術。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マルウェア検知やフィルタリング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に使われ、AWSではインライン検査型のセキュリティ機能と関連。</t>
+    </r>
+  </si>
+  <si>
+    <t>KMS Create Grant</t>
+  </si>
+  <si>
+    <r>
+      <t>一時的または限定的なKMSキー権限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を付与する方法。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>外部アプリケーションとの連携や委任操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に使われる。最小権限原則に基づく。</t>
+    </r>
+  </si>
+  <si>
+    <t>ABAC</t>
+  </si>
+  <si>
+    <r>
+      <t>属性ベースのアクセス制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。IAMポリシーにタグなどの属性を使い、柔軟かつ動的なアクセス制御を実現。大規模組織で有効。</t>
+    </r>
+  </si>
+  <si>
+    <t>BoolIfExists</t>
+  </si>
+  <si>
+    <r>
+      <t>ポリシー条件で、属性の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>存在有無に応じて評価</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を切り替える演算子。属性がない場合にも柔軟にアクセス制御が可能。例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>BoolIfExists:StringEquals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AWSの鍵管理サービス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。暗号化・復号・鍵ローテーションを統合管理。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>SSE-KMSやGrant、CloudTrail連携</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>でセキュリティを強化。</t>
+    </r>
+  </si>
+  <si>
+    <t>BGP</t>
+  </si>
+  <si>
+    <r>
+      <t>ボーダーゲートウェイプロトコル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。VPNやDirect Connectで経路情報を交換する際に使用。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ルートリーク対策</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>など設定ミス防止も重要。</t>
+    </r>
+  </si>
+  <si>
+    <t>サイト間VPN</t>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>EC2の詳細情報を取得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>するCLI/APIコマンド。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>インスタンスID、ステータス、タグ、IAMロールの確認</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>などに利用。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>監査や権限検証</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>にも活用される。</t>
+    </r>
+  </si>
+  <si>
+    <t>aws ec2 describe-instances -filters "Name=key-name,Values=LeakedProdKey"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cloud Tech </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で見たい動画</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">スプリント３ </t>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">CloudWatch </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>概要とハンズオン</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>WAF</t>
+    </r>
+  </si>
+  <si>
+    <t>スプリント４</t>
+  </si>
+  <si>
+    <t>・共通鍵</t>
+  </si>
+  <si>
+    <t>・証明書</t>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ACM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Shield</t>
+    </r>
+  </si>
+  <si>
+    <t>スプリント５</t>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CloudWatch Logs</t>
+    </r>
+  </si>
+  <si>
+    <t>スプリント７</t>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CloudFormation</t>
+    </r>
+  </si>
+  <si>
+    <t>スプリント９</t>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>VPN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Direct Connect</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>VPC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ぴあリング</t>
+    </r>
+  </si>
+  <si>
+    <t>スプリント１０</t>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SSM </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>セッションマネージャ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SSM </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>パラメータストア</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CloudWatch</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>エージェント</t>
+    </r>
+  </si>
+  <si>
+    <t>スプリント１２</t>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Oraganizations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Role</t>
+    </r>
+  </si>
+  <si>
+    <t>・マルチアカウント</t>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AssumeRole</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Config</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>GuardDuty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CloudTrail</t>
+    </r>
+  </si>
+  <si>
+    <t>エクストラ</t>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Trusted Advisor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Identity Center</t>
+    </r>
+  </si>
+  <si>
+    <t>ハンズオン</t>
+  </si>
+  <si>
+    <t>・ログ監視</t>
+  </si>
+  <si>
+    <r>
+      <t>AWS環境におけるセキュリティベストプラクティス基準</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。Security Hubで準拠状況のチェックが可能。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+Configマネージドルールを全リージョンへデプロイし２４時間評価する。</t>
+    </r>
+    <rPh sb="69" eb="70">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Perfect Forward Secrecy</t>
+  </si>
+  <si>
+    <t>インラインポリシー</t>
+  </si>
+  <si>
+    <r>
+      <t>IAMユーザーやロールに</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>直接埋め込むポリシー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。他のエンティティと共有できず、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リソースに密接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に結びつけて一貫性を保ちたいときに使用。</t>
+    </r>
+  </si>
+  <si>
+    <t>Network Firewall</t>
+  </si>
+  <si>
+    <r>
+      <t>VPC内のトラフィックを</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ステートフルに検査</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>できるマネージド型ファイアウォール。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カスタムルールでドメインやIP制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が可能。セキュリティ境界を強化。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通信セッションごとに</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一時鍵を生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>する暗号方式。過去のセッション鍵が漏洩しても、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>過去の通信内容を復号できない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ため、高い安全性を確保できる。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>**オンプレミスとVPC間**をセキュアに接続するためのVPN接続。**IPSecを使用**し、**トラフィックは暗号化**される。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Direct Connectと併用可能。 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>S3やDynamoDBに対して</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>VPCから直接アクセス可能なゲートウェイ型エンドポイント</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ルートテーブル設定が必要。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティグループ sg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のｓｇをインスタンスに設定可能。共通ｓｇを使いまわせる。 許可のみ。</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NACL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>許可と拒否。</t>
+    <rPh sb="0" eb="2">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Network Firewall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPCを出入りする通信を制御。有料。Network Firewall Endpointに到達したトラフィックをNetwork Firewall へ転送してチェック。</t>
+    <rPh sb="4" eb="6">
+      <t>デイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ユウリョウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>テンソウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3900,7 +5187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3937,6 +5224,14 @@
       <charset val="128"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
@@ -3948,8 +5243,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3958,7 +5260,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3992,7 +5306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4002,28 +5316,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10439,18 +11756,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2D46C5-3DDE-40A5-80A5-A39BBA168069}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="30.08203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="95.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="26.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="54" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -10461,1062 +11779,1272 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:2" ht="36">
+      <c r="A2" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="36">
+      <c r="A3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="36">
+      <c r="A4" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="36">
+      <c r="A5" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="36">
+      <c r="A6" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="36">
+      <c r="A7" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="54">
+      <c r="A8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="36">
+      <c r="A9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="36">
+      <c r="A10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="36">
+      <c r="A11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="36">
+      <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="36">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="36">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="36">
+      <c r="A15" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="72">
+      <c r="A16" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="36">
+      <c r="A17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="54">
+      <c r="A18" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="36">
+      <c r="A19" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="54">
+      <c r="A20" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="36">
+      <c r="A21" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="72">
+      <c r="A22" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="36">
+      <c r="A23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="36">
+      <c r="A24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="36">
+      <c r="A25" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="54">
+      <c r="A26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="36">
+      <c r="A27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="36">
+      <c r="A28" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="36">
+      <c r="A29" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="36">
+      <c r="A30" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="54">
+      <c r="A31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="36">
+      <c r="A32" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="36">
-      <c r="A3" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="B32" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="36">
+      <c r="A33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="36">
+      <c r="A34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="36">
+      <c r="A35" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="36">
+      <c r="A36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="36">
+      <c r="A37" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="36">
+      <c r="A38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="36">
+      <c r="A39" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="36">
-      <c r="A6" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="36">
-      <c r="A7" s="7" t="s">
+      <c r="B39" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="54">
+      <c r="A40" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="36">
+      <c r="A41" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="36">
+      <c r="A42" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="36">
+      <c r="A43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="36">
+      <c r="A44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="36">
+      <c r="A45" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="36">
+      <c r="A46" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="36">
+      <c r="A47" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="36">
+      <c r="A48" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="36">
+      <c r="A49" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="36">
-      <c r="A26" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="36">
-      <c r="A30" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="36">
-      <c r="A35" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="3" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="36">
+      <c r="A50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="36">
       <c r="A51" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="36">
+      <c r="A52" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="36">
+      <c r="A53" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="36">
+      <c r="A54" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="36">
+      <c r="A55" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="36">
+      <c r="A56" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="36">
-      <c r="A52" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="3" t="s">
+      <c r="B56" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="36">
+      <c r="A57" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="36">
+      <c r="A58" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="54">
+      <c r="A59" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="54">
+      <c r="A60" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="36">
+      <c r="A61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="5" t="s">
+      <c r="B61" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="36">
+      <c r="A62" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="36">
+      <c r="A63" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="36">
+      <c r="A64" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="36">
+      <c r="A65" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="36">
+      <c r="A66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="54">
+      <c r="A67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="54">
+      <c r="A68" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="36">
+      <c r="A69" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="36">
+      <c r="A70" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="36">
+      <c r="A71" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="36">
+      <c r="A72" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="36">
+      <c r="A73" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="54">
+      <c r="A74" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="36">
+      <c r="A75" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="36">
+      <c r="A76" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="7" t="s">
+      <c r="B76" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="36">
+      <c r="A77" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="54">
+      <c r="A78" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="36">
+      <c r="A79" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="36">
+      <c r="A80" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B80" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="7" t="s">
+    <row r="81" spans="1:2" ht="36">
+      <c r="A81" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="36">
+      <c r="A82" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="36">
+      <c r="A83" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="36">
+      <c r="A84" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="36">
+      <c r="A85" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="5" t="s">
+      <c r="B85" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="36">
+      <c r="A86" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="5" t="s">
+    </row>
+    <row r="87" spans="1:2" ht="36">
+      <c r="A87" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="5" t="s">
+    </row>
+    <row r="88" spans="1:2" ht="36">
+      <c r="A88" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B88" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="3" t="s">
+    <row r="89" spans="1:2" ht="36">
+      <c r="A89" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B89" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="3" t="s">
+    <row r="90" spans="1:2" ht="36">
+      <c r="A90" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B90" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="3" t="s">
+    <row r="91" spans="1:2" ht="36">
+      <c r="A91" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B91" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="36">
-      <c r="A81" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="5" t="s">
+    <row r="92" spans="1:2" ht="36">
+      <c r="A92" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="36">
+      <c r="A93" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="36">
+      <c r="A94" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="5" t="s">
+      <c r="B94" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="36">
+      <c r="A95" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="36">
-      <c r="A84" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="5" t="s">
+    </row>
+    <row r="96" spans="1:2" ht="36">
+      <c r="A96" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="36">
+      <c r="A97" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B89" s="6" t="s">
+      <c r="B97" s="4" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="36">
-      <c r="A92" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="36">
       <c r="A98" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="36">
+      <c r="A99" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="36">
+      <c r="A101" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="36">
+      <c r="A103" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="36">
+      <c r="A104" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="36">
+      <c r="A105" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="36">
+      <c r="A106" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="36">
+      <c r="A107" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="36">
+      <c r="A108" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="36">
+      <c r="A109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="36">
+      <c r="A110" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="36">
+      <c r="A111" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="36">
+      <c r="A112" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="5" t="s">
+      <c r="B112" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="36">
+      <c r="A113" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="5" t="s">
+    </row>
+    <row r="114" spans="1:2" ht="36">
+      <c r="A114" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B114" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="36">
+      <c r="A115" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="54">
+      <c r="A116" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="54">
+      <c r="A117" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="36">
+      <c r="A118" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="36">
+      <c r="A119" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="36">
+      <c r="A120" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="54">
+      <c r="A121" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="36">
+      <c r="A122" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="36">
+      <c r="A123" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="36">
+      <c r="A124" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="36">
+      <c r="A125" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="36">
+      <c r="A126" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="36">
+      <c r="A127" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="54">
+      <c r="A128" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="54">
+      <c r="A129" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="36">
+      <c r="A130" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="36">
-      <c r="A102" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="36">
-      <c r="A103" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="5" t="s">
+    <row r="131" spans="1:2" ht="36">
+      <c r="A131" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="36">
+      <c r="A132" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="36">
+      <c r="A133" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="54">
+      <c r="A134" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="36">
+      <c r="A135" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="36">
+      <c r="A136" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="36">
+      <c r="A137" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="36">
+      <c r="A138" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="36">
+      <c r="A139" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="36">
+      <c r="A140" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="36">
+      <c r="A141" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="36">
-      <c r="A106" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B108" s="6" t="s">
+      <c r="B141" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="36">
+      <c r="A142" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="36">
+      <c r="A143" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="36">
+      <c r="A144" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="36">
-      <c r="A112" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="36">
-      <c r="A116" s="7" t="s">
+    <row r="145" spans="1:2" ht="36">
+      <c r="A145" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="36">
+      <c r="A146" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="36">
+      <c r="A147" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="36">
+      <c r="A148" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B148" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B124" s="8" t="s">
+    <row r="149" spans="1:2" ht="36">
+      <c r="A149" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="36">
+      <c r="A150" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="54">
+      <c r="A152" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B131" xr:uid="{7A2D46C5-3DDE-40A5-80A5-A39BBA168069}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B163">
+    <sortCondition ref="A2:A163"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7421E4-3E8D-4BD8-B04B-31E43EAC9375}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE91C37-5D18-49F1-B876-646C7D829531}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="76.58203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="54">
+      <c r="B2" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="36">
-      <c r="A128" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="36">
-      <c r="A129" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="36">
-      <c r="A130" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B109" xr:uid="{7A2D46C5-3DDE-40A5-80A5-A39BBA168069}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B130">
-    <sortCondition ref="A2:A130"/>
-  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE91C37-5D18-49F1-B876-646C7D829531}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B8310A-AD03-4EA9-A297-01179DEE3623}">
   <dimension ref="A1:D56"/>
   <sheetViews>
@@ -11532,786 +13060,786 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="D37" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -12320,18 +13848,190 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7421E4-3E8D-4BD8-B04B-31E43EAC9375}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BDB993-BDA1-44F2-812E-74AE28602F07}">
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" s="11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" s="11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" s="9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/scs.xlsx
+++ b/scs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arwml\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48214674-8CB1-42DE-AE87-21371FE9D7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F0F4F2-3F86-4430-8B0E-0CC68F60C408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="830" yWindow="860" windowWidth="17510" windowHeight="19840" xr2:uid="{67019B03-F1A0-410D-9686-FED7C8D87B25}"/>
+    <workbookView xWindow="830" yWindow="860" windowWidth="23090" windowHeight="19840" xr2:uid="{67019B03-F1A0-410D-9686-FED7C8D87B25}"/>
   </bookViews>
   <sheets>
     <sheet name="単語" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">単語!$A$1:$B$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">単語!$A$1:$B$132</definedName>
     <definedName name="営業">[1]step2!#REF!</definedName>
     <definedName name="資材">[1]step2!#REF!</definedName>
     <definedName name="生産">[1]step2!#REF!</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="520">
   <si>
     <t>Audit Manager</t>
   </si>
@@ -1195,62 +1195,673 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>EC2やコンテナの脆弱性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を自動検出し、セキュリティリスクをレポートするスキャニングサービス。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>全アカウント対応。</t>
-    </r>
-    <rPh sb="46" eb="47">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>タイオウ</t>
-    </rPh>
+    <t>クレデンシャル</t>
+  </si>
+  <si>
+    <t>グローバルSTSエンドポイント</t>
+  </si>
+  <si>
+    <t>リージョナルSTSエンドポイント</t>
+  </si>
+  <si>
+    <t>セッショントークン</t>
+  </si>
+  <si>
+    <t>CloudFormation</t>
+  </si>
+  <si>
+    <r>
+      <t>AWSリソースを</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コードで定義・自動作成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>できるIaCサービス。セキュリティ設定も一貫して管理可能。</t>
+    </r>
+  </si>
+  <si>
+    <t>IdP (Identity Provider)</t>
+  </si>
+  <si>
+    <r>
+      <t>認証情報を提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>する外部サービス。SAMLやOIDC経由でユーザーのAWSアクセスを制御する際に使用。</t>
+    </r>
+  </si>
+  <si>
+    <t>SAMLフェデレーション</t>
+  </si>
+  <si>
+    <r>
+      <t>企業IdPと連携して、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一時的なAWSアクセス権限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をSAML経由で付与する。SSOに用いられる。</t>
+    </r>
+  </si>
+  <si>
+    <t>ブレークグラス</t>
+  </si>
+  <si>
+    <r>
+      <t>緊急時のために</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>制限付きで用意された強力なアクセス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。通常時は無効または隔離管理される。</t>
+    </r>
+  </si>
+  <si>
+    <t>ENI (Elastic Network Interface)</t>
+  </si>
+  <si>
+    <r>
+      <t>EC2等に付与する</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>仮想ネットワークカード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。セキュリティグループやIP制御に重要な構成要素。</t>
+    </r>
+  </si>
+  <si>
+    <t>SNSトピック</t>
+  </si>
+  <si>
+    <r>
+      <t>通知の送信先を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>トピック単位で管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。セキュリティイベントを通知する用途で多用される。</t>
+    </r>
+  </si>
+  <si>
+    <t>TLSパススルー</t>
+  </si>
+  <si>
+    <t>Organizations Trail</t>
+  </si>
+  <si>
+    <r>
+      <t>AWS Organizations全体に有効な</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>CloudTrail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。全アカウントの操作を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一括記録</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>できる。</t>
+    </r>
+  </si>
+  <si>
+    <t>CloudWatch Logs クロスアカウントサブスクリプションフィルター</t>
+  </si>
+  <si>
+    <r>
+      <t>他アカウントのログを</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自アカウントにリアルタイム転送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。セキュリティ統合管理に使う。</t>
+    </r>
+  </si>
+  <si>
+    <t>プリンシパル (Principal)</t>
+  </si>
+  <si>
+    <r>
+      <t>AWSアクションを実行するエンティティ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。IAMユーザー、ロール、サービス等が該当。</t>
+    </r>
+  </si>
+  <si>
+    <t>CVEルールセット</t>
+  </si>
+  <si>
+    <r>
+      <t>既知の脆弱性識別子（CVE）に基づく検出ルール</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。Inspectorなどで脆弱性スキャンに使用。</t>
+    </r>
+  </si>
+  <si>
+    <t>Fargate</t>
+  </si>
+  <si>
+    <r>
+      <t>コンテナの実行基盤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を自動管理。OSやパッチの管理不要なため、攻撃面を減らせる。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>戻りのトラフィックも明示的に許可が必要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>なネットワークACL。VPCサブネット単位で制御。</t>
+    </r>
+  </si>
+  <si>
+    <t>TLS証明書</t>
+  </si>
+  <si>
+    <r>
+      <t>通信の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>暗号化と認証</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に使う。ACMやELB経由で証明書を設定してSSL/TLS通信を保護。</t>
+    </r>
+  </si>
+  <si>
+    <t>ACM (AWS Certificate Manager)</t>
+  </si>
+  <si>
+    <r>
+      <t>TLS証明書を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>無料で発行・管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>できるサービス。ELBやCloudFrontに簡単に統合可能。</t>
+    </r>
+  </si>
+  <si>
+    <t>CMK (Customer Master Key)</t>
+  </si>
+  <si>
+    <r>
+      <t>KMSで管理される</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>暗号鍵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の一種。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>顧客が管理・制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>できる鍵として使われる。</t>
+    </r>
+  </si>
+  <si>
+    <t>Transit Gateway</t>
+  </si>
+  <si>
+    <r>
+      <t>VPC間やオンプレミスとの通信を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中央集約的に接続・制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。ルート制御と分離に便利。</t>
+    </r>
+  </si>
+  <si>
+    <t>SAML IdP</t>
+  </si>
+  <si>
+    <r>
+      <t>SAMLプロトコルに基づく</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>認証提供者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。SSO構成で、フェデレーションによるアクセスを可能にする。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>アクセスキー、シークレットキー、セッショントークン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>などのAWSアクセス認証情報全般。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>全リージョン共通のSTSエンドポイント</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。一部機能での</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リージョン分離制御が困難</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>になる。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>各リージョンごとに</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>STSトークンを発行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。リージョンごとの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>セキュリティポリシー適用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が可能。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>STSなどで発行される</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一時的な認証情報の一部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。時間制限付きで、より安全なアクセス制御ができる。</t>
+    </r>
+  </si>
+  <si>
+    <t>REST API</t>
+  </si>
+  <si>
+    <r>
+      <t>暗号化通信を復号せず転送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>する方式。ALBでは不可だが、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NLBで使える</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。証明書管理に注意。</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クレデンシャル</t>
-  </si>
-  <si>
-    <t>グローバルSTSエンドポイント</t>
-  </si>
-  <si>
-    <t>リージョナルSTSエンドポイント</t>
-  </si>
-  <si>
-    <t>セッショントークン</t>
-  </si>
-  <si>
-    <t>CloudFormation</t>
-  </si>
-  <si>
-    <r>
-      <t>AWSリソースを</t>
+    <t>自己署名証明書</t>
+  </si>
+  <si>
+    <t>sts:AssumeRole</t>
+  </si>
+  <si>
+    <t>信頼ポリシー</t>
+  </si>
+  <si>
+    <r>
+      <t>IAMロールを</t>
     </r>
     <r>
       <rPr>
@@ -1261,43 +1872,17 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>コードで定義・自動作成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>できるIaCサービス。セキュリティ設定も一貫して管理可能。</t>
-    </r>
-  </si>
-  <si>
-    <t>IdP (Identity Provider)</t>
-  </si>
-  <si>
-    <r>
-      <t>認証情報を提供</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>する外部サービス。SAMLやOIDC経由でユーザーのAWSアクセスを制御する際に使用。</t>
-    </r>
-  </si>
-  <si>
-    <t>SAMLフェデレーション</t>
-  </si>
-  <si>
-    <r>
-      <t>企業IdPと連携して、</t>
+      <t>一時的に引き受ける権限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を定義。クロスアカウントアクセスや</t>
     </r>
     <r>
       <rPr>
@@ -1308,25 +1893,22 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>一時的なAWSアクセス権限</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>をSAML経由で付与する。SSOに用いられる。</t>
-    </r>
-  </si>
-  <si>
-    <t>ブレークグラス</t>
-  </si>
-  <si>
-    <r>
-      <t>緊急時のために</t>
+      <t>フェデレーション</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に必須。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IAMロールの</t>
     </r>
     <r>
       <rPr>
@@ -1337,25 +1919,37 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>制限付きで用意された強力なアクセス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。通常時は無効または隔離管理される。</t>
-    </r>
-  </si>
-  <si>
-    <t>ENI (Elastic Network Interface)</t>
-  </si>
-  <si>
-    <r>
-      <t>EC2等に付与する</t>
+      <t>使用を許可するエンティティ（プリンシパル）を定義</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。AssumeRole操作時に参照される。</t>
+    </r>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t>AppSync</t>
+  </si>
+  <si>
+    <t>WAFのWeb ACL</t>
+  </si>
+  <si>
+    <t>Glue Crawler</t>
+  </si>
+  <si>
+    <t>AppSync GraphQL API エンドポイント</t>
+  </si>
+  <si>
+    <r>
+      <t>データソースをスキャンし</t>
     </r>
     <r>
       <rPr>
@@ -1366,25 +1960,17 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>仮想ネットワークカード</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。セキュリティグループやIP制御に重要な構成要素。</t>
-    </r>
-  </si>
-  <si>
-    <t>SNSトピック</t>
-  </si>
-  <si>
-    <r>
-      <t>通知の送信先を</t>
+      <t>スキーマを自動抽出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>して</t>
     </r>
     <r>
       <rPr>
@@ -1395,28 +1981,17 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>トピック単位で管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。セキュリティイベントを通知する用途で多用される。</t>
-    </r>
-  </si>
-  <si>
-    <t>TLSパススルー</t>
-  </si>
-  <si>
-    <t>Organizations Trail</t>
-  </si>
-  <si>
-    <r>
-      <t>AWS Organizations全体に有効な</t>
+      <t>Glue Data Catalog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に登録。</t>
     </r>
     <r>
       <rPr>
@@ -1427,17 +2002,22 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>CloudTrail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。全アカウントの操作を</t>
+      <t>IAMによるアクセス制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が必要。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通信を暗号化する</t>
     </r>
     <r>
       <rPr>
@@ -1448,25 +2028,22 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>一括記録</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>できる。</t>
-    </r>
-  </si>
-  <si>
-    <t>CloudWatch Logs クロスアカウントサブスクリプションフィルター</t>
-  </si>
-  <si>
-    <r>
-      <t>他アカウントのログを</t>
+      <t>プロトコル（HTTPS）で、データの盗聴や改ざんを防止。AWSのほぼ全サービスがTLS 1.2以降</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に対応。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AppSyncの</t>
     </r>
     <r>
       <rPr>
@@ -1477,94 +2054,17 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>自アカウントにリアルタイム転送</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。セキュリティ統合管理に使う。</t>
-    </r>
-  </si>
-  <si>
-    <t>プリンシパル (Principal)</t>
-  </si>
-  <si>
-    <r>
-      <t>AWSアクションを実行するエンティティ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。IAMユーザー、ロール、サービス等が該当。</t>
-    </r>
-  </si>
-  <si>
-    <t>CVEルールセット</t>
-  </si>
-  <si>
-    <r>
-      <t>既知の脆弱性識別子（CVE）に基づく検出ルール</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。Inspectorなどで脆弱性スキャンに使用。</t>
-    </r>
-  </si>
-  <si>
-    <t>Fargate</t>
-  </si>
-  <si>
-    <r>
-      <t>コンテナの実行基盤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を自動管理。OSやパッチの管理不要なため、攻撃面を減らせる。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>戻りのトラフィックも明示的に許可が必要</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>なネットワークACL。VPCサブネット単位で制御。</t>
-    </r>
-  </si>
-  <si>
-    <t>TLS証明書</t>
-  </si>
-  <si>
-    <r>
-      <t>通信の</t>
+      <t>GraphQL API用URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
     </r>
     <r>
       <rPr>
@@ -1575,25 +2075,17 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>暗号化と認証</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>に使う。ACMやELB経由で証明書を設定してSSL/TLS通信を保護。</t>
-    </r>
-  </si>
-  <si>
-    <t>ACM (AWS Certificate Manager)</t>
-  </si>
-  <si>
-    <r>
-      <t>TLS証明書を</t>
+      <t>IAM・Cognito等で認証制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>し、必要に応じて</t>
     </r>
     <r>
       <rPr>
@@ -1604,25 +2096,32 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>無料で発行・管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>できるサービス。ELBやCloudFrontに簡単に統合可能。</t>
-    </r>
-  </si>
-  <si>
-    <t>CMK (Customer Master Key)</t>
-  </si>
-  <si>
-    <r>
-      <t>KMSで管理される</t>
+      <t>WAFやカスタム認可ロジック</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>も活用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GraphQL APIを提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>するマネージドサービス。</t>
     </r>
     <r>
       <rPr>
@@ -1633,17 +2132,17 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>暗号鍵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の一種。</t>
+      <t>認証にCognito・IAM・APIキー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>などを使用。</t>
     </r>
     <r>
       <rPr>
@@ -1654,25 +2153,22 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>顧客が管理・制御</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>できる鍵として使われる。</t>
-    </r>
-  </si>
-  <si>
-    <t>Transit Gateway</t>
-  </si>
-  <si>
-    <r>
-      <t>VPC間やオンプレミスとの通信を</t>
+      <t>リゾルバーで権限制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>も可能。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Webアプリへの攻撃から守る</t>
     </r>
     <r>
       <rPr>
@@ -1683,25 +2179,17 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>中央集約的に接続・制御</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。ルート制御と分離に便利。</t>
-    </r>
-  </si>
-  <si>
-    <t>SAML IdP</t>
-  </si>
-  <si>
-    <r>
-      <t>SAMLプロトコルに基づく</t>
+      <t>アクセス制御ルールの集合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
     </r>
     <r>
       <rPr>
@@ -1712,47 +2200,17 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>認証提供者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。SSO構成で、フェデレーションによるアクセスを可能にする。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>アクセスキー、シークレットキー、セッショントークン</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>などのAWSアクセス認証情報全般。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>全リージョン共通のSTSエンドポイント</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。一部機能での</t>
+      <t>SQLi・XSS対策やIP制限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>などを設定し、</t>
     </r>
     <r>
       <rPr>
@@ -1763,337 +2221,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>リージョン分離制御が困難</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>になる。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>各リージョンごとに</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>STSトークンを発行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。リージョンごとの</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>セキュリティポリシー適用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>が可能。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>STSなどで発行される</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>一時的な認証情報の一部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。時間制限付きで、より安全なアクセス制御ができる。</t>
-    </r>
-  </si>
-  <si>
-    <t>REST API</t>
-  </si>
-  <si>
-    <r>
-      <t>暗号化通信を復号せず転送</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>する方式。ALBでは不可だが、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>NLBで使える</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。証明書管理に注意。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自己署名証明書</t>
-  </si>
-  <si>
-    <t>sts:AssumeRole</t>
-  </si>
-  <si>
-    <t>信頼ポリシー</t>
-  </si>
-  <si>
-    <r>
-      <t>IAMロールを</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>一時的に引き受ける権限</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を定義。クロスアカウントアクセスや</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>フェデレーション</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>に必須。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>IAMロールの</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>使用を許可するエンティティ（プリンシパル）を定義</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。AssumeRole操作時に参照される。</t>
-    </r>
-  </si>
-  <si>
-    <t>TLS</t>
-  </si>
-  <si>
-    <t>AppSync</t>
-  </si>
-  <si>
-    <t>WAFのWeb ACL</t>
-  </si>
-  <si>
-    <t>Glue Crawler</t>
-  </si>
-  <si>
-    <t>AppSync GraphQL API エンドポイント</t>
-  </si>
-  <si>
-    <r>
-      <t>データソースをスキャンし</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>スキーマを自動抽出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>して</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Glue Data Catalog</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>に登録。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>IAMによるアクセス制御</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>が必要。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>通信を暗号化する</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>プロトコル（HTTPS）で、データの盗聴や改ざんを防止。AWSのほぼ全サービスがTLS 1.2以降</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>に対応。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>AppSyncの</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>GraphQL API用URL</t>
+      <t>CloudFrontやALBなどに適用可能</t>
     </r>
     <r>
       <rPr>
@@ -2105,179 +2233,9 @@
       </rPr>
       <t>。</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>IAM・Cognito等で認証制御</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>し、必要に応じて</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>WAFやカスタム認可ロジック</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>も活用。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GraphQL APIを提供</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>するマネージドサービス。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>認証にCognito・IAM・APIキー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>などを使用。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>リゾルバーで権限制御</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>も可能。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Webアプリへの攻撃から守る</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アクセス制御ルールの集合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>SQLi・XSS対策やIP制限</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>などを設定し、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>CloudFrontやALBなどに適用可能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。</t>
-    </r>
   </si>
   <si>
     <t>VPCトラフィックミラーリング</t>
-  </si>
-  <si>
-    <t>IDS（侵入検知システム）</t>
   </si>
   <si>
     <r>
@@ -5182,12 +5140,1183 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>KMS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>全アカウントのEC2やコンテナの脆弱性を自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>動検出し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>EventBridge→SSM PatchManagerで処置自動化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">。 </t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ショチ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>ジドウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Inspector (Classic)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVEスキャン。タグでフィルタリングし、SSM Run Commandでパッチ適用</t>
+    <rPh sb="39" eb="41">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リージョン内で。</t>
+    <rPh sb="5" eb="6">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cloud Front のGeo Restrition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象国をブロック</t>
+    <rPh sb="0" eb="3">
+      <t>タイショウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ACM (AWS Certificate Manager)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Certificat Renewal Required</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ACMの有効期限アラーム。EventBridgeで検出しSNSトピへ。</t>
+    <rPh sb="4" eb="6">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ例 CloudTrail</t>
+    <rPh sb="3" eb="4">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データ例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CloudWatchLogs</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>CloudTrailをCloudWatch Logsに出力 : API履歴をログに送信してアラーム設定可能</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データ例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> EventBridge</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>CloudTrailログの整合性検知 : LookupEvents で特定操作の自動検知</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CreateUser : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>IAMユーザーが作成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>された履歴を記録</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>AttachRolePolicy : IAMロールに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ポリシーをアタッチ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>した操作</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>StartInstances : EC2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>インスタンスの起動</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>PutBucketPolicy : S3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バケットポリシーの変更</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ConsoleLogin : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マネジメントコンソールへのログイン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>履歴</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CreateTrail : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>CloudTrail自体の作成・変更</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>UpdateFunctionCode : Lambda関数の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コード変更</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CreateSecurityGroup : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>セキュリティグループの新規作成</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AuthorizeSecurityGroupIngress : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>セキュリティグループのインバウンド許可設定</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DeleteDBInstance : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>RDSインスタンスの削除操作</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lambda関数のconsole.log()出力 : 関数の実行結果やデバッグ情報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>VPC Flow Logs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> : ネットワーク通信の記録（接続元IPなど）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>API Gatewayの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アクセスログ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> : 誰がいつどのエンドポイントにアクセスしたか</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ECSタスクのログ : コンテナアプリの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>出力ログ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>RDSの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>エラーログ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> : SQLエラーやパフォーマンス問題の把握</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>S3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アクセスログ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（Athenaで集計） : 誰がどのオブジェクトを取得したか</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Windows EC2のシステムログ : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>イベントログ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>など、OSレベルのトラブルシュート</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>GuardDutyの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>検出結果ログ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> : セキュリティイベントの詳細出力</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>WAFログ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> : ブロック・許可されたHTTPリクエストの記録</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>EC2起動</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>時に通知を送る : EC2 Instance State-change Notification をトリガーにSNS通知</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>S3バケット作成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>時にLambda起動 : 新しいバケットが作られたときに自動処理</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GuardDutyの脅威検出で自動対応 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>重大アラート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>時に自動隔離処理</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CodePipeline成功時にSlack通知 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>パイプラインの成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をトリガーに通知</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>IAMポリシー変更時</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に検出 : Put*Policy イベントをフックして監視</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Security Hubの重大リスク</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で連携 : 高リスクの検出で自動修復ワークフロー起動</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AWS Backupの成功通知 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バックアップ完了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を検知して記録</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ECSタスクのステータス変化 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>タスク終了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を検知して自動リラン</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アカウントログイン試行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を通知 : ConsoleLogin を条件に通知送信（成功/失敗可）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSE-KMS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSE-S3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無料だが、CloudTrailでみれない</t>
+    <rPh sb="0" eb="2">
+      <t>ムリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有料だが、CloudTrailでみれる  APIたたくのか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IDS（Intrusion Detection System）
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Guard Duty 元データ</t>
+    <rPh sb="11" eb="12">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPCフローログ、Route53 DNSクエリ、CloudTrailイベントログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudTrail 署名付きダイジェストファイル</t>
+  </si>
+  <si>
+    <t>GuardDuty 信頼済みIPリスト</t>
+  </si>
+  <si>
+    <r>
+      <t>信頼済みIPリスト（Trusted IP list）は、GuardDutyの検出対象から除外したい信頼済みのIP範囲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を定義するリストで、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>誤検知を防止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>できる。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CloudTrailのログ整合性検証機能で生成される</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ハッシュ値の署名ファイル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ログが改ざんされていないか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を検証するために</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>S3に保存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>される。</t>
+    </r>
+  </si>
+  <si>
+    <t>CloudTrail → CloudWatch Logs連携</t>
+    <rPh sb="28" eb="30">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudTrail → EventBirdge連携</t>
+    <rPh sb="24" eb="26">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudWatch Logs エージェント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudWatch Logs だけではCPU使用率くらいしかわからない。</t>
+    <rPh sb="23" eb="26">
+      <t>シヨウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>CloudTrailはAPI操作を記録するだけ。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">CloudTrailのログをCloudWatch Logsへ連携することでメトリクスフィルタなどでパターン検出できる。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>１０分～２０分かかる</t>
+    </r>
+    <rPh sb="14" eb="16">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>CloudTrailの特定のログ発生そのものを検出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">する場合は、EventBridgeへ連携。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リアルタイム検出。</t>
+    </r>
+    <rPh sb="11" eb="13">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効期限は１３カ月。６０～４５日前に自動更新。</t>
+    <rPh sb="0" eb="4">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニチマエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sheild Advanced -&gt; CloudWatch 連携</t>
+    <rPh sb="30" eb="32">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sheild Advanced単体では通知しない</t>
+    <rPh sb="15" eb="17">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Macie -&gt; EventBridge連携</t>
+    <rPh sb="20" eb="22">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MacieのFindings（検出イベント）をEventBridgeに流して、他サービスでアクション（例：通知や自動隔離）が可能。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短時間に異常アクセスするIPをブロック。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WAFのレートベースルール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudFrontからのアクセスだけを許可したいときに、秘密のカスタムヘッダーを付けて、オリジンで検証する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CAPTCHA（Completely Automated Public Turing test to tell Computers and Humans Apart）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人間かボットかを判別するためのテスト手法で、不正アクセスやボット攻撃を防ぐ。WAFなどと組み合わせて使うことも多い。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DNSSEC（DNS Security Extensions）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DNSの応答に電子署名を付けることで改ざんを防止する仕組み。Route 53で有効化でき、DNSキャッシュポイズニング対策になる。 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>親ゾーンにDSレコードを登録要</t>
+    </r>
+    <rPh sb="80" eb="81">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記入日</t>
+    <rPh sb="0" eb="3">
+      <t>キニュウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>CloudFrontの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>独自ヘッダー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>付与</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <numFmts count="1">
+    <numFmt numFmtId="184" formatCode="m/d"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5250,6 +6379,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5306,7 +6457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5342,6 +6493,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11758,92 +12924,96 @@
     <tabColor theme="7" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:C202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E201" sqref="E201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="26.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="54" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.08203125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="36">
+      <c r="C1" s="16" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="36">
       <c r="A2" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="36">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="36">
       <c r="A3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="36">
+    </row>
+    <row r="4" spans="1:3" ht="36">
       <c r="A4" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="36">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="36">
       <c r="A5" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="36">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="36">
       <c r="A6" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="36">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="36">
       <c r="A7" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="54">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="54">
       <c r="A8" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="36">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="36">
       <c r="A9" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="36">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="36">
       <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
@@ -11851,7 +13021,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="36">
+    <row r="11" spans="1:3" ht="36">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -11859,7 +13029,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="36">
+    <row r="12" spans="1:3" ht="36">
       <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
@@ -11867,7 +13037,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="36">
+    <row r="13" spans="1:3" ht="36">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -11875,7 +13045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="36">
+    <row r="14" spans="1:3" ht="36">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -11883,20 +13053,20 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="36">
+    <row r="15" spans="1:3" ht="36">
       <c r="A15" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="72">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="72">
       <c r="A16" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="36">
@@ -11909,50 +13079,50 @@
     </row>
     <row r="18" spans="1:2" ht="54">
       <c r="A18" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="36">
       <c r="A19" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="54">
       <c r="A20" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="36">
       <c r="A21" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="72">
       <c r="A22" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="36">
       <c r="A23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="36">
@@ -11965,10 +13135,10 @@
     </row>
     <row r="25" spans="1:2" ht="36">
       <c r="A25" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="54">
@@ -11989,42 +13159,42 @@
     </row>
     <row r="28" spans="1:2" ht="36">
       <c r="A28" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="36">
       <c r="A29" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="36">
       <c r="A30" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="54">
       <c r="A31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="36">
       <c r="A32" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="36">
@@ -12045,10 +13215,10 @@
     </row>
     <row r="35" spans="1:2" ht="36">
       <c r="A35" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="36">
@@ -12061,10 +13231,10 @@
     </row>
     <row r="37" spans="1:2" ht="36">
       <c r="A37" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="36">
@@ -12077,66 +13247,66 @@
     </row>
     <row r="39" spans="1:2" ht="36">
       <c r="A39" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="54">
       <c r="A40" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="36">
       <c r="A41" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="36">
       <c r="A42" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="36">
       <c r="A43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="36">
       <c r="A44" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="36">
       <c r="A45" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="36">
       <c r="A46" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="36">
@@ -12149,18 +13319,18 @@
     </row>
     <row r="48" spans="1:2" ht="36">
       <c r="A48" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="36">
       <c r="A49" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="36">
@@ -12173,18 +13343,18 @@
     </row>
     <row r="51" spans="1:2" ht="36">
       <c r="A51" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="36">
       <c r="A52" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="36">
@@ -12192,7 +13362,7 @@
         <v>58</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="36">
@@ -12213,42 +13383,42 @@
     </row>
     <row r="56" spans="1:2" ht="36">
       <c r="A56" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="36">
       <c r="A57" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="36">
       <c r="A58" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="54">
       <c r="A59" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="54">
       <c r="A60" s="3" t="s">
-        <v>148</v>
+        <v>493</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="36">
@@ -12256,738 +13426,1270 @@
         <v>11</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>87</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="36">
       <c r="A62" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>355</v>
+        <v>448</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="36">
       <c r="A63" s="3" t="s">
-        <v>263</v>
+        <v>352</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="36">
       <c r="A64" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>71</v>
+        <v>261</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="36">
       <c r="A65" s="3" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="36">
       <c r="A66" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="36">
+      <c r="A67" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="54">
-      <c r="A67" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="54">
       <c r="A68" s="4" t="s">
-        <v>387</v>
+        <v>19</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="36">
-      <c r="A69" s="3" t="s">
-        <v>342</v>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="54">
+      <c r="A69" s="4" t="s">
+        <v>385</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="36">
-      <c r="A70" s="5" t="s">
-        <v>261</v>
+      <c r="A70" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>277</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="36">
       <c r="A71" s="5" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="36">
-      <c r="A72" s="3" t="s">
-        <v>361</v>
+      <c r="A72" s="5" t="s">
+        <v>317</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>115</v>
+        <v>327</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="36">
       <c r="A73" s="3" t="s">
-        <v>292</v>
+        <v>359</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="54">
-      <c r="A74" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="36">
-      <c r="A75" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>285</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="36">
+      <c r="A74" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="54">
+      <c r="A75" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="36">
       <c r="A76" s="3" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="36">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="36">
+      <c r="A78" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="54">
-      <c r="A78" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="36">
-      <c r="A79" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>334</v>
+    </row>
+    <row r="79" spans="1:2" ht="54">
+      <c r="A79" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="36">
-      <c r="A80" s="5" t="s">
-        <v>322</v>
+      <c r="A80" s="3" t="s">
+        <v>331</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="36">
-      <c r="A81" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>61</v>
+      <c r="A81" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="36">
       <c r="A82" s="3" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>362</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="36">
       <c r="A83" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="36">
+      <c r="A84" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B84" s="8" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="36">
-      <c r="A84" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="36">
       <c r="A85" s="5" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="36">
-      <c r="A86" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>125</v>
+      <c r="A86" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="36">
       <c r="A87" s="3" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="36">
       <c r="A88" s="3" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="36">
       <c r="A89" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="36">
       <c r="A90" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="36">
       <c r="A91" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>34</v>
+        <v>6</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="36">
       <c r="A92" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>331</v>
+        <v>21</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="36">
-      <c r="A93" s="5" t="s">
-        <v>349</v>
+      <c r="A93" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="36">
-      <c r="A94" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>80</v>
+      <c r="A94" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="36">
       <c r="A95" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="36">
+      <c r="A96" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="36">
-      <c r="A96" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>348</v>
-      </c>
     </row>
     <row r="97" spans="1:2" ht="36">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="36">
+      <c r="A98" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B98" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="36">
-      <c r="A98" s="5" t="s">
+    <row r="99" spans="1:2" ht="36">
+      <c r="A99" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B99" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="36">
-      <c r="A99" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B99" s="4" t="s">
+    <row r="100" spans="1:2" ht="36">
+      <c r="A100" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="3" t="s">
+    <row r="101" spans="1:2">
+      <c r="A101" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B101" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="36">
-      <c r="A101" s="3" t="s">
+    <row r="102" spans="1:2" ht="36">
+      <c r="A102" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B102" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="36">
+    <row r="103" spans="1:2">
       <c r="A103" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>135</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="36">
-      <c r="A104" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>306</v>
+      <c r="A104" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="36">
-      <c r="A105" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>143</v>
+      <c r="A105" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="36">
       <c r="A106" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="36">
       <c r="A107" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="36">
+      <c r="A108" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="36">
-      <c r="A108" s="5" t="s">
+    </row>
+    <row r="109" spans="1:2" ht="36">
+      <c r="A109" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="36">
-      <c r="A109" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="36">
       <c r="A110" s="3" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="36">
       <c r="A111" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>314</v>
+        <v>48</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="36">
       <c r="A112" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>73</v>
+        <v>311</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="36">
       <c r="A113" s="3" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="36">
       <c r="A114" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="36">
+      <c r="A115" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B115" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="36">
-      <c r="A115" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="54">
-      <c r="A116" s="5" t="s">
-        <v>139</v>
+    <row r="116" spans="1:2" ht="36">
+      <c r="A116" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>146</v>
+        <v>368</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="54">
-      <c r="A117" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="36">
-      <c r="A118" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>12</v>
+      <c r="A117" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="54">
+      <c r="A118" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="36">
       <c r="A119" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>299</v>
+        <v>13</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="36">
       <c r="A120" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="54">
-      <c r="A121" s="4" t="s">
-        <v>435</v>
+      <c r="B120" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="36">
+      <c r="A121" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="36">
-      <c r="A122" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>364</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="54">
+      <c r="A122" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="36">
       <c r="A123" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="36">
+      <c r="A124" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B124" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="36">
-      <c r="A124" s="5" t="s">
+    <row r="125" spans="1:2" ht="36">
+      <c r="A125" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="36">
+      <c r="A126" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="36">
+      <c r="A127" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B127" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="36">
-      <c r="A125" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="36">
-      <c r="A126" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="36">
-      <c r="A127" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="54">
-      <c r="A128" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>440</v>
+    <row r="128" spans="1:2" ht="36">
+      <c r="A128" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="54">
       <c r="A129" s="4" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="36">
-      <c r="A130" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>63</v>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="54">
+      <c r="A130" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="36">
       <c r="A131" s="3" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="36">
       <c r="A132" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>287</v>
+        <v>90</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="36">
-      <c r="A133" s="5" t="s">
-        <v>271</v>
+      <c r="A133" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="54">
-      <c r="A134" s="4" t="s">
-        <v>371</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="36">
+      <c r="A134" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="36">
-      <c r="A135" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="54">
+      <c r="A135" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="36">
+      <c r="A136" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="36">
-      <c r="A136" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="36">
       <c r="A137" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>99</v>
+        <v>301</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="36">
       <c r="A138" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>308</v>
+        <v>97</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="36">
-      <c r="A139" s="3" t="s">
-        <v>305</v>
+      <c r="A139" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="36">
-      <c r="A140" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>128</v>
+      <c r="A140" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="36">
       <c r="A141" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>301</v>
+        <v>89</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="36">
-      <c r="A142" s="3" t="s">
-        <v>132</v>
+      <c r="A142" s="5" t="s">
+        <v>291</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>363</v>
+        <v>299</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="36">
       <c r="A143" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>360</v>
+        <v>131</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="36">
       <c r="A144" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="36">
+      <c r="A145" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B145" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="36">
-      <c r="A145" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="36">
+    <row r="146" spans="1:3" ht="36">
       <c r="A146" s="3" t="s">
-        <v>259</v>
+        <v>133</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="36">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="36">
       <c r="A147" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="36">
-      <c r="A148" s="5" t="s">
-        <v>273</v>
+        <v>257</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="36">
+      <c r="A148" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="36">
-      <c r="A149" s="4" t="s">
-        <v>381</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="36">
+      <c r="A149" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="36">
-      <c r="A150" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="36">
+      <c r="A150" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="36">
+      <c r="A151" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B152" s="4" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="3" t="s">
+    <row r="153" spans="1:3" ht="54">
+      <c r="A153" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B153" s="4" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="54">
-      <c r="A152" s="3" t="s">
+    <row r="154" spans="1:3">
+      <c r="A154" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B152" s="4" t="s">
-        <v>447</v>
+      <c r="B154" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="36">
+      <c r="A156" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C158" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C159" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C160" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C161" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C162" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C163" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C164" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C165" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="36">
+      <c r="A166" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C166" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C167" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="36">
+      <c r="A168" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C168" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C169" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="36">
+      <c r="A170" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C170" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C171" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C172" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="36">
+      <c r="A173" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C173" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="36">
+      <c r="A174" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C174" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="36">
+      <c r="A175" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C175" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C176" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C177" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="36">
+      <c r="A178" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C178" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="36">
+      <c r="A179" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C179" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="36">
+      <c r="A180" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C180" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="36">
+      <c r="A181" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C181" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="36">
+      <c r="A182" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C182" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="36">
+      <c r="A183" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C183" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="36">
+      <c r="A184" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="C184" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C185" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C186" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="36">
+      <c r="A187" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="C187" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C188" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C189" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B190" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="C190" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="54">
+      <c r="A191" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="B191" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="C191" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="54">
+      <c r="A192" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C192" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="54">
+      <c r="A193" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C193" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="36">
+      <c r="A194" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C194" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="36">
+      <c r="A195" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C195" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="36">
+      <c r="A196" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C196" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="36">
+      <c r="A197" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C197" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="36">
+      <c r="A198" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C198" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C199" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="36">
+      <c r="A200" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C200" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="72">
+      <c r="A201" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C201" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="54">
+      <c r="A202" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C202" s="16">
+        <v>45866</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B131" xr:uid="{7A2D46C5-3DDE-40A5-80A5-A39BBA168069}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B163">
-    <sortCondition ref="A2:A163"/>
+  <autoFilter ref="A1:B132" xr:uid="{7A2D46C5-3DDE-40A5-80A5-A39BBA168069}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B164">
+    <sortCondition ref="A2:A164"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13027,15 +14729,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="54">
       <c r="B2" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -13060,786 +14762,786 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="D37" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -13864,170 +15566,170 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/scs.xlsx
+++ b/scs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arwml\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F0F4F2-3F86-4430-8B0E-0CC68F60C408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D48DFC-C6EF-44B5-AFE6-9CB5102BDB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="830" yWindow="860" windowWidth="23090" windowHeight="19840" xr2:uid="{67019B03-F1A0-410D-9686-FED7C8D87B25}"/>
+    <workbookView xWindow="830" yWindow="860" windowWidth="18660" windowHeight="19840" xr2:uid="{67019B03-F1A0-410D-9686-FED7C8D87B25}"/>
   </bookViews>
   <sheets>
     <sheet name="単語" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="530">
   <si>
     <t>Audit Manager</t>
   </si>
@@ -6306,6 +6306,119 @@
       </rPr>
       <t>付与</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">aws iam </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>update-saml-provider</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>SAML IdPの証明書が変更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>された場合、IAMの設定を変更するときに使う。 新旧証明書を両方登録で切り替えスムーズ。</t>
+    </r>
+    <rPh sb="9" eb="12">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シンキュウ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TLSオフロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TLSの暗号化/復号処理をELBなどで代行し、バックエンドの負荷を軽減。SSL終端とも呼ばれる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cognito User Pool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cognito Identity Pool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証後にAWSリソースへアクセスする一時的な認証情報（クレデンシャル）を発行するための認可機能。IAMロールと連携。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証・MFA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトはTLS1.2以上</t>
+    <rPh sb="12" eb="14">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALBの対応TLS</t>
+    <rPh sb="4" eb="6">
+      <t>タイオウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -12924,11 +13037,11 @@
     <tabColor theme="7" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C202"/>
+  <dimension ref="A1:C207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E201" sqref="E201"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -14684,6 +14797,52 @@
       </c>
       <c r="C202" s="16">
         <v>45866</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="36">
+      <c r="A203" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="C203" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="36">
+      <c r="A204" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C204" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="36">
+      <c r="A206" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/scs.xlsx
+++ b/scs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arwml\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D48DFC-C6EF-44B5-AFE6-9CB5102BDB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5A94E3-539F-4F01-9B54-564D04985318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="830" yWindow="860" windowWidth="18660" windowHeight="19840" xr2:uid="{67019B03-F1A0-410D-9686-FED7C8D87B25}"/>
+    <workbookView xWindow="180" yWindow="430" windowWidth="18110" windowHeight="20560" xr2:uid="{67019B03-F1A0-410D-9686-FED7C8D87B25}"/>
   </bookViews>
   <sheets>
     <sheet name="単語" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">単語!$A$1:$B$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">単語!$A$1:$B$224</definedName>
     <definedName name="営業">[1]step2!#REF!</definedName>
     <definedName name="資材">[1]step2!#REF!</definedName>
     <definedName name="生産">[1]step2!#REF!</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="564">
   <si>
     <t>Audit Manager</t>
   </si>
@@ -2787,21 +2787,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>IDフェデレーションのプロトコル</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。OIDCはOAuthベース、SAMLはXMLベース。SSOやIdP連携に用いる。</t>
-    </r>
-  </si>
-  <si>
     <t>素材付きCMK（Customer Managed Key）</t>
   </si>
   <si>
@@ -2820,37 +2805,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>IPv6専用でアウトバウンドのみ許可</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>するインターネットゲートウェイ。インバウンド通信は受け付けない。</t>
-    </r>
-  </si>
-  <si>
     <t>Nitro SystemベースのEC2</t>
-  </si>
-  <si>
-    <r>
-      <t>セキュリティ・性能が強化された仮想化基盤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。ハイパーバイザを排除し、分離と暗号化を徹底した設計。</t>
-    </r>
   </si>
   <si>
     <t>タグベースのABAC条件</t>
@@ -3047,21 +3002,6 @@
         <charset val="128"/>
       </rPr>
       <t>。ログイン試行の回数制限やMFAで防止できる。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>各インスタンス上で動作する侵入検知／防御エージェント</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。不審な挙動をリアルタイムに検出・対応。</t>
     </r>
   </si>
   <si>
@@ -4959,53 +4899,6 @@
         <charset val="128"/>
       </rPr>
       <t>が可能。セキュリティ境界を強化。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>通信セッションごとに</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>一時鍵を生成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>する暗号方式。過去のセッション鍵が漏洩しても、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>過去の通信内容を復号できない</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ため、高い安全性を確保できる。</t>
     </r>
   </si>
   <si>
@@ -6418,6 +6311,601 @@
     <t>ALBの対応TLS</t>
     <rPh sb="4" eb="6">
       <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AD FS（Active Directory Federation Services）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AD FSを**IdP（アイデンティティプロバイダー）**として使い、SAML連携でAWSにログインさせる構成がある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IAMクレデンシャルレポート </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>全IAMユーザーの認証情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の使用状況をCSV形式で出力。パスワードやアクセスキーの有効期限などを確認できる。アクセスキーが古い・使われていない＝削除検討。MFAが有効でないユーザーを発見できる</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API Gateway IPｱﾄﾞﾚｽ制限</t>
+    <rPh sb="19" eb="21">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・WAFを設け、WebACLでIP制限
+・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>API GatewayのリソースポリシーでIP制限</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Config マネージドルール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PrivateLink </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">PrivateLink ( Inter face vpce) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>なら別会社と接続OK</t>
+    </r>
+    <rPh sb="33" eb="36">
+      <t>ベツガイシャ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>source / Destination check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルーターやファイアウォールのようなトラフィックを”経由”する機器では、source / Destination checkを無効にする。</t>
+    <rPh sb="25" eb="27">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cloud Front のACM証明書</t>
+    <rPh sb="16" eb="19">
+      <t>ショウメイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">us-east-1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">PEM </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>禁止AMIが無いかチェックし、SSM Automation ドキュメント（Runbook）で修正。</t>
+    <rPh sb="0" eb="2">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OIDC と SAML の比較</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>OIDC（OpenID Connect）は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Cognito Identity Pool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>にIdPを接続してフェデレーション。軽量。</t>
+    </r>
+    <rPh sb="60" eb="62">
+      <t>ケイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>SAML（Security Assertion Markup Language）はIAMロールをSAML IdP経由で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>AssumeRole</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>して一時クレデンシャル取得</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール番号が小さい順に評価しマッチした行のみが適用される。</t>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インバウンドはすべて拒否。  許可のみ可能
+インスタンス作成でデフォルトsgがセットされ、同じsg内は通信許可される</t>
+    <rPh sb="10" eb="12">
+      <t>キョヒ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>EGIGW : IPv6専用で</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アウトバウンド(Egress)のみ許可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>するインターネットゲートウェイ。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>IPv4のNAT GWと類似。</t>
+    </r>
+    <rPh sb="62" eb="64">
+      <t>ルイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>セキュリティ・性能が強化された仮想化基盤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ホスト間を常時暗号化する</t>
+    </r>
+    <rPh sb="24" eb="25">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>アンゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>IDフェデレーションのプロトコル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>OIDCはOAuthベース</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、SAMLはXMLベース。SSOやIdP連携に用いる。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>通信セッションごとに</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一時鍵を生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>する暗号方式。過去のセッション鍵が漏洩しても、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>過去の通信内容を復号できない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ため、高い安全性を確保できる。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3 / CloudWatch Logs / OpenSearch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data Firehoseの宛先</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WAF のログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直接S3保管できない。 Firehoseを使う必要あり。</t>
+    <rPh sb="0" eb="2">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社間</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信頼ポリシー、 STS Assume RoleでOK</t>
+    <rPh sb="0" eb="2">
+      <t>シンライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４KBまでを暗号化可能</t>
+    <rPh sb="6" eb="9">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aws kms enctypt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cloud Trail イベント履歴</t>
+    <rPh sb="16" eb="18">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直近９０日分のイベントをGUIで確認可能</t>
+    <rPh sb="0" eb="2">
+      <t>チョッキン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニチブン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンプライアンスモード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１０年はrootですら変更不可。</t>
+    <rPh sb="2" eb="3">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>McAfeeなど。 個々のインスタンス上で侵入検知、遮断。
+IDSは“見るだけ”、IPSは“止める”までやる</t>
+    <rPh sb="10" eb="12">
+      <t>ココ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シャダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>interface vpce / gateway vpce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>interface vpce: ENIが作られる（料金発生）
+gateway vpce: ルートテーブルにエントリのみ s3,dynamo-db</t>
+    <rPh sb="20" eb="21">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>違反をEventBridgeで検出し、SNSトピへ
+・sgの全開放チェック
+・ACM証明書の期限チェック</t>
+    <rPh sb="0" eb="2">
+      <t>イハン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ゼンカイホウ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6570,7 +7058,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6621,6 +7109,9 @@
     </xf>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13037,11 +13528,11 @@
     <tabColor theme="7" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:C226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A208" sqref="A208"/>
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C215" sqref="C215:C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -13059,15 +13550,15 @@
         <v>22</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36">
       <c r="A2" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36">
@@ -13080,34 +13571,34 @@
     </row>
     <row r="4" spans="1:3" ht="36">
       <c r="A4" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="36">
       <c r="A5" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="36">
       <c r="A6" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="36">
       <c r="A7" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="54">
@@ -13168,18 +13659,18 @@
     </row>
     <row r="15" spans="1:3" ht="36">
       <c r="A15" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="72">
       <c r="A16" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="36">
@@ -13192,42 +13683,42 @@
     </row>
     <row r="18" spans="1:2" ht="54">
       <c r="A18" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="36">
       <c r="A19" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="54">
       <c r="A20" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="36">
       <c r="A21" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="72">
       <c r="A22" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="36">
@@ -13248,10 +13739,10 @@
     </row>
     <row r="25" spans="1:2" ht="36">
       <c r="A25" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="54">
@@ -13272,26 +13763,26 @@
     </row>
     <row r="28" spans="1:2" ht="36">
       <c r="A28" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="36">
       <c r="A29" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="36">
       <c r="A30" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="54">
@@ -13360,18 +13851,18 @@
     </row>
     <row r="39" spans="1:2" ht="36">
       <c r="A39" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="54">
       <c r="A40" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="36">
@@ -13387,7 +13878,7 @@
         <v>264</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>281</v>
+        <v>544</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="36">
@@ -13408,18 +13899,18 @@
     </row>
     <row r="45" spans="1:2" ht="36">
       <c r="A45" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="36">
       <c r="A46" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="36">
@@ -13432,10 +13923,10 @@
     </row>
     <row r="48" spans="1:2" ht="36">
       <c r="A48" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="36">
@@ -13464,10 +13955,10 @@
     </row>
     <row r="52" spans="1:2" ht="36">
       <c r="A52" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="36">
@@ -13475,7 +13966,7 @@
         <v>58</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="36">
@@ -13504,10 +13995,10 @@
     </row>
     <row r="57" spans="1:2" ht="36">
       <c r="A57" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="36">
@@ -13528,7 +14019,7 @@
     </row>
     <row r="60" spans="1:2" ht="54">
       <c r="A60" s="3" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>147</v>
@@ -13539,23 +14030,23 @@
         <v>11</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="36">
       <c r="A62" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="36">
       <c r="A63" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="36">
@@ -13595,23 +14086,23 @@
         <v>19</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="54">
       <c r="A69" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="36">
       <c r="A70" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="36">
@@ -13624,15 +14115,15 @@
     </row>
     <row r="72" spans="1:2" ht="36">
       <c r="A72" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="36">
       <c r="A73" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>114</v>
@@ -13640,26 +14131,26 @@
     </row>
     <row r="74" spans="1:2" ht="36">
       <c r="A74" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="54">
       <c r="A75" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="36">
-      <c r="A76" s="3" t="s">
-        <v>282</v>
+      <c r="A76" s="7" t="s">
+        <v>280</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>283</v>
+        <v>545</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="36">
@@ -13667,7 +14158,7 @@
         <v>263</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>278</v>
+        <v>546</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="36">
@@ -13680,26 +14171,26 @@
     </row>
     <row r="79" spans="1:2" ht="54">
       <c r="A79" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>437</v>
+        <v>547</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="36">
       <c r="A80" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="36">
       <c r="A81" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="36">
@@ -13715,7 +14206,7 @@
         <v>129</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="36">
@@ -13728,18 +14219,18 @@
     </row>
     <row r="85" spans="1:2" ht="36">
       <c r="A85" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="36">
       <c r="A86" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="36">
@@ -13792,18 +14283,18 @@
     </row>
     <row r="93" spans="1:2" ht="36">
       <c r="A93" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="36">
       <c r="A94" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="36">
@@ -13824,10 +14315,10 @@
     </row>
     <row r="97" spans="1:2" ht="36">
       <c r="A97" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="36">
@@ -13848,7 +14339,7 @@
     </row>
     <row r="100" spans="1:2" ht="36">
       <c r="A100" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>31</v>
@@ -13872,7 +14363,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="36">
@@ -13885,10 +14376,10 @@
     </row>
     <row r="105" spans="1:2" ht="36">
       <c r="A105" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="36">
@@ -13941,10 +14432,10 @@
     </row>
     <row r="112" spans="1:2" ht="36">
       <c r="A112" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="36">
@@ -13976,7 +14467,7 @@
         <v>146</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="54">
@@ -13989,10 +14480,10 @@
     </row>
     <row r="118" spans="1:2" ht="54">
       <c r="A118" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="36">
@@ -14005,34 +14496,34 @@
     </row>
     <row r="120" spans="1:2" ht="36">
       <c r="A120" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="36">
       <c r="A121" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="54">
       <c r="A122" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="36">
       <c r="A123" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="36">
@@ -14053,10 +14544,10 @@
     </row>
     <row r="126" spans="1:2" ht="36">
       <c r="A126" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="36">
@@ -14069,26 +14560,26 @@
     </row>
     <row r="128" spans="1:2" ht="36">
       <c r="A128" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="54">
       <c r="A129" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="54">
       <c r="A130" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="36">
@@ -14109,10 +14600,10 @@
     </row>
     <row r="133" spans="1:2" ht="36">
       <c r="A133" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="36">
@@ -14125,10 +14616,10 @@
     </row>
     <row r="135" spans="1:2" ht="54">
       <c r="A135" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="36">
@@ -14141,10 +14632,10 @@
     </row>
     <row r="137" spans="1:2" ht="36">
       <c r="A137" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="36">
@@ -14156,19 +14647,19 @@
       </c>
     </row>
     <row r="139" spans="1:2" ht="36">
-      <c r="A139" s="5" t="s">
-        <v>302</v>
+      <c r="A139" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>306</v>
+        <v>560</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="36">
       <c r="A140" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>303</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="36">
@@ -14181,10 +14672,10 @@
     </row>
     <row r="142" spans="1:2" ht="36">
       <c r="A142" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="36">
@@ -14192,7 +14683,7 @@
         <v>131</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="36">
@@ -14200,7 +14691,7 @@
         <v>54</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="36">
@@ -14229,10 +14720,10 @@
     </row>
     <row r="148" spans="1:3" ht="36">
       <c r="A148" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="36">
@@ -14245,71 +14736,71 @@
     </row>
     <row r="150" spans="1:3" ht="36">
       <c r="A150" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="36">
       <c r="A151" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="54">
       <c r="A153" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="3" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="36">
       <c r="A156" s="3" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="3" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>456</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>461</v>
       </c>
       <c r="C158" s="16">
         <v>45866</v>
@@ -14317,10 +14808,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C159" s="16">
         <v>45866</v>
@@ -14328,10 +14819,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C160" s="16">
         <v>45866</v>
@@ -14339,10 +14830,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C161" s="16">
         <v>45866</v>
@@ -14350,10 +14841,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C162" s="16">
         <v>45866</v>
@@ -14361,10 +14852,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C163" s="16">
         <v>45866</v>
@@ -14372,10 +14863,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C164" s="16">
         <v>45866</v>
@@ -14383,10 +14874,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C165" s="16">
         <v>45866</v>
@@ -14394,10 +14885,10 @@
     </row>
     <row r="166" spans="1:3" ht="36">
       <c r="A166" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C166" s="16">
         <v>45866</v>
@@ -14405,10 +14896,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C167" s="16">
         <v>45866</v>
@@ -14416,10 +14907,10 @@
     </row>
     <row r="168" spans="1:3" ht="36">
       <c r="A168" s="3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C168" s="16">
         <v>45866</v>
@@ -14427,10 +14918,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C169" s="16">
         <v>45866</v>
@@ -14438,10 +14929,10 @@
     </row>
     <row r="170" spans="1:3" ht="36">
       <c r="A170" s="3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C170" s="16">
         <v>45866</v>
@@ -14449,10 +14940,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C171" s="16">
         <v>45866</v>
@@ -14460,10 +14951,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C172" s="16">
         <v>45866</v>
@@ -14471,10 +14962,10 @@
     </row>
     <row r="173" spans="1:3" ht="36">
       <c r="A173" s="3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C173" s="16">
         <v>45866</v>
@@ -14482,10 +14973,10 @@
     </row>
     <row r="174" spans="1:3" ht="36">
       <c r="A174" s="3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C174" s="16">
         <v>45866</v>
@@ -14493,10 +14984,10 @@
     </row>
     <row r="175" spans="1:3" ht="36">
       <c r="A175" s="3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C175" s="16">
         <v>45866</v>
@@ -14504,10 +14995,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C176" s="16">
         <v>45866</v>
@@ -14515,10 +15006,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C177" s="16">
         <v>45866</v>
@@ -14526,10 +15017,10 @@
     </row>
     <row r="178" spans="1:3" ht="36">
       <c r="A178" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C178" s="16">
         <v>45866</v>
@@ -14537,10 +15028,10 @@
     </row>
     <row r="179" spans="1:3" ht="36">
       <c r="A179" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C179" s="16">
         <v>45866</v>
@@ -14548,10 +15039,10 @@
     </row>
     <row r="180" spans="1:3" ht="36">
       <c r="A180" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C180" s="16">
         <v>45866</v>
@@ -14559,10 +15050,10 @@
     </row>
     <row r="181" spans="1:3" ht="36">
       <c r="A181" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C181" s="16">
         <v>45866</v>
@@ -14570,10 +15061,10 @@
     </row>
     <row r="182" spans="1:3" ht="36">
       <c r="A182" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C182" s="16">
         <v>45866</v>
@@ -14581,10 +15072,10 @@
     </row>
     <row r="183" spans="1:3" ht="36">
       <c r="A183" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C183" s="16">
         <v>45866</v>
@@ -14592,10 +15083,10 @@
     </row>
     <row r="184" spans="1:3" ht="36">
       <c r="A184" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C184" s="16">
         <v>45866</v>
@@ -14603,10 +15094,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C185" s="16">
         <v>45866</v>
@@ -14614,10 +15105,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C186" s="16">
         <v>45866</v>
@@ -14625,10 +15116,10 @@
     </row>
     <row r="187" spans="1:3" ht="36">
       <c r="A187" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C187" s="16">
         <v>45866</v>
@@ -14636,10 +15127,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="3" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C188" s="16">
         <v>45866</v>
@@ -14647,10 +15138,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C189" s="16">
         <v>45866</v>
@@ -14658,10 +15149,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C190" s="16">
         <v>45866</v>
@@ -14669,10 +15160,10 @@
     </row>
     <row r="191" spans="1:3" ht="54">
       <c r="A191" s="14" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C191" s="16">
         <v>45866</v>
@@ -14680,10 +15171,10 @@
     </row>
     <row r="192" spans="1:3" ht="54">
       <c r="A192" s="14" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C192" s="16">
         <v>45866</v>
@@ -14691,10 +15182,10 @@
     </row>
     <row r="193" spans="1:3" ht="54">
       <c r="A193" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C193" s="16">
         <v>45866</v>
@@ -14702,10 +15193,10 @@
     </row>
     <row r="194" spans="1:3" ht="36">
       <c r="A194" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C194" s="16">
         <v>45866</v>
@@ -14713,10 +15204,10 @@
     </row>
     <row r="195" spans="1:3" ht="36">
       <c r="A195" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C195" s="16">
         <v>45866</v>
@@ -14724,10 +15215,10 @@
     </row>
     <row r="196" spans="1:3" ht="36">
       <c r="A196" s="3" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C196" s="16">
         <v>45866</v>
@@ -14735,10 +15226,10 @@
     </row>
     <row r="197" spans="1:3" ht="36">
       <c r="A197" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C197" s="16">
         <v>45866</v>
@@ -14746,10 +15237,10 @@
     </row>
     <row r="198" spans="1:3" ht="36">
       <c r="A198" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C198" s="16">
         <v>45866</v>
@@ -14757,10 +15248,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C199" s="16">
         <v>45866</v>
@@ -14768,10 +15259,10 @@
     </row>
     <row r="200" spans="1:3" ht="36">
       <c r="A200" s="3" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C200" s="16">
         <v>45866</v>
@@ -14779,10 +15270,10 @@
     </row>
     <row r="201" spans="1:3" ht="72">
       <c r="A201" s="3" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C201" s="16">
         <v>45866</v>
@@ -14790,10 +15281,10 @@
     </row>
     <row r="202" spans="1:3" ht="54">
       <c r="A202" s="3" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C202" s="16">
         <v>45866</v>
@@ -14801,10 +15292,10 @@
     </row>
     <row r="203" spans="1:3" ht="36">
       <c r="A203" s="3" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C203" s="16">
         <v>45866</v>
@@ -14812,10 +15303,10 @@
     </row>
     <row r="204" spans="1:3" ht="36">
       <c r="A204" s="3" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C204" s="16">
         <v>45866</v>
@@ -14823,30 +15314,248 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="3" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>527</v>
+        <v>522</v>
+      </c>
+      <c r="C205" s="16">
+        <v>45866</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="36">
       <c r="A206" s="3" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>526</v>
+        <v>521</v>
+      </c>
+      <c r="C206" s="16">
+        <v>45866</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C207" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="36">
+      <c r="A208" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C208" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="72">
+      <c r="A209" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="C209" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="36">
+      <c r="A210" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="B207" s="4" t="s">
-        <v>528</v>
+      <c r="B210" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C210" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="36">
+      <c r="A211" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C211" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="C212" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="36">
+      <c r="A213" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C213" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="C214" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="36">
+      <c r="A215" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C215" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="36">
+      <c r="A216" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C216" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="54">
+      <c r="A217" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B217" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="C217" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B218" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="C218" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C219" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C220" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C221" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C222" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C223" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C224" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="36">
+      <c r="A225" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C225" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="54">
+      <c r="A226" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C226" s="16">
+        <v>45867</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B132" xr:uid="{7A2D46C5-3DDE-40A5-80A5-A39BBA168069}"/>
+  <autoFilter ref="A1:B224" xr:uid="{7A2D46C5-3DDE-40A5-80A5-A39BBA168069}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B164">
     <sortCondition ref="A2:A164"/>
   </sortState>
@@ -14888,15 +15597,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="54">
       <c r="B2" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -15725,170 +16434,170 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="9" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="9" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" s="9" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="11" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="9" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" s="9" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="9" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" s="9" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="9" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" s="9" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="9" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" s="11" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" s="11" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" s="11" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" s="11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" s="11" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" s="11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="9" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" s="9" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" s="9" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="9" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" s="9" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/scs.xlsx
+++ b/scs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arwml\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5A94E3-539F-4F01-9B54-564D04985318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73D1579-B83B-4E46-9A39-786E87A92759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="430" windowWidth="18110" windowHeight="20560" xr2:uid="{67019B03-F1A0-410D-9686-FED7C8D87B25}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">単語!$A$1:$B$224</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">単語!$A$1:$C$225</definedName>
     <definedName name="営業">[1]step2!#REF!</definedName>
     <definedName name="資材">[1]step2!#REF!</definedName>
     <definedName name="生産">[1]step2!#REF!</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="564">
   <si>
     <t>Audit Manager</t>
   </si>
@@ -4144,21 +4144,6 @@
   </si>
   <si>
     <t>ABAC</t>
-  </si>
-  <si>
-    <r>
-      <t>属性ベースのアクセス制御</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。IAMポリシーにタグなどの属性を使い、柔軟かつ動的なアクセス制御を実現。大規模組織で有効。</t>
-    </r>
   </si>
   <si>
     <t>BoolIfExists</t>
@@ -6907,6 +6892,22 @@
     <rPh sb="46" eb="48">
       <t>キゲン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>属性ベースのアクセス制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。IAMポリシーにタグなどの属性を使い、柔軟かつ動的なアクセス制御を実現。大規模組織で有効。</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7058,7 +7059,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7095,13 +7096,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7111,6 +7112,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13528,11 +13535,11 @@
     <tabColor theme="7" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:C225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C215" sqref="C215:C226"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F216" sqref="F216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -13550,7 +13557,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36">
@@ -13558,7 +13565,7 @@
         <v>383</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>384</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36">
@@ -13570,1523 +13577,1577 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="36">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C4" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="36">
+      <c r="A5" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="36">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:3" ht="36">
+      <c r="A6" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C6" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C7" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="36">
+      <c r="A8" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="36">
-      <c r="A6" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="36">
-      <c r="A7" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="54">
-      <c r="A8" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36">
       <c r="A9" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="36">
+      <c r="A10" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="36">
+      <c r="A11" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C11" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="54">
+      <c r="A12" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="36">
+      <c r="A13" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="36">
-      <c r="A10" s="5" t="s">
+    <row r="14" spans="1:3" ht="36">
+      <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="36">
-      <c r="A11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="36">
-      <c r="A12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="36">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="36">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="36">
       <c r="A15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="36">
+      <c r="A16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="36">
+      <c r="A17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="36">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="36">
+      <c r="A19" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="72">
-      <c r="A16" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B16" s="6" t="s">
+    <row r="20" spans="1:3" ht="72">
+      <c r="A20" s="4" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="36">
-      <c r="A17" s="3" t="s">
+      <c r="B20" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="36">
+      <c r="A21" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C21" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C22" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="36">
+      <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="54">
-      <c r="A18" s="4" t="s">
+    <row r="24" spans="1:3" ht="54">
+      <c r="A24" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="36">
-      <c r="A19" s="7" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="36">
+      <c r="A25" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="54">
-      <c r="A20" s="4" t="s">
+    <row r="26" spans="1:3" ht="54">
+      <c r="A26" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="72">
+      <c r="A27" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C27" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="36">
+      <c r="A29" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="72">
+      <c r="A30" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="C31" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C33" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="36">
+      <c r="A34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="36">
+      <c r="A35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="36">
+      <c r="A36" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="36">
+      <c r="A37" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C37" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="54">
+      <c r="A38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="36">
+      <c r="A39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="54">
+      <c r="A40" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C40" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="36">
+      <c r="A41" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C41" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="54">
+      <c r="A42" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C42" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="36">
+      <c r="A43" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="36">
+      <c r="A44" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="36">
+      <c r="A45" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="36">
+      <c r="A46" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C46" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="54">
+      <c r="A47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="36">
+      <c r="A48" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="36">
+      <c r="A49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="36">
+      <c r="A50" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C50" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C51" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="36">
+      <c r="A52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="36">
+      <c r="A53" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="36">
+      <c r="A54" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C54" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="54">
+      <c r="A55" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C55" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="36">
+      <c r="A56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="36">
+      <c r="A57" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C58" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="36">
+      <c r="A59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="36">
+      <c r="A60" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="54">
+      <c r="A61" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C61" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="54">
+      <c r="A62" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="36">
+      <c r="A63" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="36">
+      <c r="A64" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="36">
+      <c r="A65" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="36">
+      <c r="A66" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="36">
+      <c r="A67" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="36">
+      <c r="A68" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="36">
+      <c r="A69" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="36">
+      <c r="A70" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="36">
+      <c r="A71" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="C72" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="36">
+      <c r="A73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="36">
+      <c r="A74" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="54">
+      <c r="A75" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C75" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="36">
+      <c r="A76" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="36">
+      <c r="A77" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="36">
+      <c r="A78" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="36">
+      <c r="A79" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="36">
+      <c r="A80" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="72">
+      <c r="A81" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="C81" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="36">
+      <c r="A82" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="36">
+      <c r="A83" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="54">
+      <c r="A84" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="54">
+      <c r="A85" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="36">
+      <c r="A86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="36">
+      <c r="A87" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="36">
+      <c r="A88" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C88" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="36">
+      <c r="A89" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="36">
+      <c r="A90" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="36">
+      <c r="A91" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="36">
+      <c r="A92" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="36">
+      <c r="A93" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="54">
+      <c r="A94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="36">
-      <c r="A21" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="72">
-      <c r="A22" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B22" s="6" t="s">
+    <row r="95" spans="1:3">
+      <c r="A95" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="54">
+      <c r="A96" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="36">
+      <c r="A97" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="36">
+      <c r="A98" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="36">
+      <c r="A99" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="36">
+      <c r="A100" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C100" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="36">
+      <c r="A101" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="C103" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="36">
+      <c r="A104" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="54">
+      <c r="A105" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="54">
+      <c r="A106" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="36">
+      <c r="A107" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="36">
+      <c r="A108" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C108" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="36">
+      <c r="A109" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C109" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="36">
+      <c r="A110" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="36">
+      <c r="A111" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="54">
+      <c r="A112" s="4" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="36">
-      <c r="A23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="36">
-      <c r="A24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="36">
-      <c r="A25" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="54">
-      <c r="A26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="36">
-      <c r="A27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="36">
-      <c r="A28" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="36">
-      <c r="A29" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="36">
-      <c r="A30" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="54">
-      <c r="A31" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="36">
-      <c r="A32" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="36">
-      <c r="A33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="36">
-      <c r="A34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="36">
-      <c r="A35" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="36">
-      <c r="A36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="36">
-      <c r="A37" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="36">
-      <c r="A38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="36">
-      <c r="A39" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="54">
-      <c r="A40" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="36">
-      <c r="A41" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="36">
-      <c r="A42" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="36">
-      <c r="A43" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="36">
-      <c r="A44" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="36">
-      <c r="A45" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="36">
-      <c r="A46" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="36">
-      <c r="A47" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="36">
-      <c r="A48" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="36">
-      <c r="A49" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="36">
-      <c r="A50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="36">
-      <c r="A51" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="36">
-      <c r="A52" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="36">
-      <c r="A53" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="36">
-      <c r="A54" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="36">
-      <c r="A55" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="36">
-      <c r="A56" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="36">
-      <c r="A57" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="36">
-      <c r="A58" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="54">
-      <c r="A59" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="54">
-      <c r="A60" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="36">
-      <c r="A61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="36">
-      <c r="A62" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="36">
-      <c r="A63" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="36">
-      <c r="A64" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="36">
-      <c r="A65" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="36">
-      <c r="A66" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="36">
-      <c r="A67" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="54">
-      <c r="A68" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="54">
-      <c r="A69" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="36">
-      <c r="A70" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="36">
-      <c r="A71" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="36">
-      <c r="A72" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="36">
-      <c r="A73" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="36">
-      <c r="A74" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="54">
-      <c r="A75" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="36">
-      <c r="A76" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="36">
-      <c r="A77" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B77" s="6" t="s">
+      <c r="B112" s="4" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="36">
-      <c r="A78" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="54">
-      <c r="A79" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="36">
-      <c r="A80" s="3" t="s">
+    <row r="113" spans="1:3" ht="36">
+      <c r="A113" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B113" s="6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="36">
-      <c r="A81" s="5" t="s">
+    <row r="114" spans="1:3" ht="36">
+      <c r="A114" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B114" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="36">
-      <c r="A82" s="3" t="s">
+    <row r="115" spans="1:3" ht="36">
+      <c r="A115" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B115" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="36">
-      <c r="A83" s="3" t="s">
+    <row r="116" spans="1:3">
+      <c r="A116" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="C116" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="36">
+      <c r="A117" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B117" s="4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="36">
-      <c r="A84" s="3" t="s">
+    <row r="118" spans="1:3" ht="36">
+      <c r="A118" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B118" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="36">
-      <c r="A85" s="5" t="s">
+    <row r="119" spans="1:3" ht="36">
+      <c r="A119" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B119" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="36">
-      <c r="A86" s="5" t="s">
+    <row r="120" spans="1:3" ht="36">
+      <c r="A120" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B120" s="6" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="36">
-      <c r="A87" s="3" t="s">
+    <row r="121" spans="1:3" ht="36">
+      <c r="A121" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B121" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="36">
-      <c r="A88" s="3" t="s">
+    <row r="122" spans="1:3" ht="36">
+      <c r="A122" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B122" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="36">
-      <c r="A89" s="3" t="s">
+    <row r="123" spans="1:3" ht="36">
+      <c r="A123" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B123" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="36">
-      <c r="A90" s="3" t="s">
+    <row r="124" spans="1:3" ht="36">
+      <c r="A124" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B124" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="36">
-      <c r="A91" s="3" t="s">
+    <row r="125" spans="1:3" ht="36">
+      <c r="A125" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B125" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="36">
-      <c r="A92" s="3" t="s">
+    <row r="126" spans="1:3" ht="36">
+      <c r="A126" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C126" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="36">
+      <c r="A127" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B127" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="36">
-      <c r="A93" s="3" t="s">
+    <row r="128" spans="1:3" ht="36">
+      <c r="A128" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B128" s="6" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="36">
-      <c r="A94" s="5" t="s">
+    <row r="129" spans="1:3" ht="36">
+      <c r="A129" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B129" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="36">
-      <c r="A95" s="3" t="s">
+    <row r="130" spans="1:3" ht="36">
+      <c r="A130" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B130" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="36">
-      <c r="A96" s="3" t="s">
+    <row r="131" spans="1:3" ht="36">
+      <c r="A131" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B131" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="36">
-      <c r="A97" s="5" t="s">
+    <row r="132" spans="1:3" ht="36">
+      <c r="A132" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B132" s="6" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="36">
-      <c r="A98" s="3" t="s">
+    <row r="133" spans="1:3" ht="36">
+      <c r="A133" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C133" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C134" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C135" s="16">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="36">
+      <c r="A136" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B136" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="36">
-      <c r="A99" s="5" t="s">
+    <row r="137" spans="1:3" ht="36">
+      <c r="A137" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B137" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="36">
-      <c r="A100" s="3" t="s">
+    <row r="138" spans="1:3" ht="36">
+      <c r="A138" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B138" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="3" t="s">
+    <row r="139" spans="1:3">
+      <c r="A139" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B139" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="36">
-      <c r="A102" s="3" t="s">
+    <row r="140" spans="1:3" ht="36">
+      <c r="A140" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B140" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="3" t="s">
+    <row r="141" spans="1:3">
+      <c r="A141" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="36">
-      <c r="A104" s="3" t="s">
+    <row r="142" spans="1:3" ht="36">
+      <c r="A142" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B142" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="36">
-      <c r="A105" s="5" t="s">
+    <row r="143" spans="1:3" ht="36">
+      <c r="A143" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B143" s="6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="36">
-      <c r="A106" s="3" t="s">
+    <row r="144" spans="1:3" ht="36">
+      <c r="A144" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B144" s="4" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="36">
-      <c r="A107" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="36">
-      <c r="A108" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="36">
-      <c r="A109" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="36">
-      <c r="A110" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="36">
-      <c r="A111" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="36">
-      <c r="A112" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="36">
-      <c r="A113" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="36">
-      <c r="A114" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="36">
-      <c r="A115" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="36">
-      <c r="A116" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="54">
-      <c r="A117" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="54">
-      <c r="A118" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="36">
-      <c r="A119" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="36">
-      <c r="A120" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="36">
-      <c r="A121" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="54">
-      <c r="A122" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="36">
-      <c r="A123" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="36">
-      <c r="A124" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="36">
-      <c r="A125" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="36">
-      <c r="A126" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="36">
-      <c r="A127" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="36">
-      <c r="A128" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="54">
-      <c r="A129" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="54">
-      <c r="A130" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="36">
-      <c r="A131" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="36">
-      <c r="A132" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="36">
-      <c r="A133" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="36">
-      <c r="A134" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="54">
-      <c r="A135" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="36">
-      <c r="A136" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="36">
-      <c r="A137" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="36">
-      <c r="A138" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="36">
-      <c r="A139" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="36">
-      <c r="A140" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="36">
-      <c r="A141" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="36">
-      <c r="A142" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="36">
-      <c r="A143" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="36">
-      <c r="A144" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="36">
       <c r="A145" s="3" t="s">
-        <v>53</v>
+        <v>516</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>79</v>
+        <v>517</v>
+      </c>
+      <c r="C145" s="16">
+        <v>45866</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="36">
       <c r="A146" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>135</v>
+        <v>103</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="36">
       <c r="A147" s="3" t="s">
-        <v>257</v>
+        <v>115</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>266</v>
+        <v>116</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="36">
-      <c r="A148" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>279</v>
+      <c r="A148" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="36">
-      <c r="A149" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>272</v>
+      <c r="A149" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="36">
-      <c r="A150" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>376</v>
+      <c r="A150" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="36">
       <c r="A151" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>307</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="36">
       <c r="A152" s="3" t="s">
-        <v>437</v>
+        <v>47</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="54">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="36">
       <c r="A153" s="3" t="s">
-        <v>439</v>
+        <v>81</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="36">
       <c r="A154" s="3" t="s">
-        <v>441</v>
+        <v>40</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="3" t="s">
-        <v>446</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="36">
+      <c r="A155" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="36">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="3" t="s">
-        <v>449</v>
+        <v>549</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C156" s="16">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="54">
+      <c r="A157" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>450</v>
+        <v>145</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="3" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="C158" s="16">
         <v>45866</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="C159" s="16">
-        <v>45866</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+    <row r="159" spans="1:3" ht="54">
+      <c r="A159" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="36">
       <c r="A160" s="3" t="s">
-        <v>451</v>
+        <v>13</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C160" s="16">
-        <v>45866</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="36">
       <c r="A161" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="C161" s="16">
-        <v>45866</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>286</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="36">
       <c r="A162" s="3" t="s">
-        <v>451</v>
+        <v>284</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="C162" s="16">
-        <v>45866</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="3" t="s">
-        <v>451</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="54">
+      <c r="A163" s="4" t="s">
+        <v>428</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="C163" s="16">
-        <v>45866</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="36">
       <c r="A164" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="C164" s="16">
-        <v>45866</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>283</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="36">
       <c r="A165" s="3" t="s">
-        <v>451</v>
+        <v>52</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="C165" s="16">
-        <v>45866</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="36">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="3" t="s">
-        <v>451</v>
+        <v>551</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>464</v>
+        <v>552</v>
       </c>
       <c r="C166" s="16">
-        <v>45866</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C167" s="16">
-        <v>45866</v>
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="36">
+      <c r="A167" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="36">
       <c r="A168" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="C168" s="16">
-        <v>45866</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="C169" s="16">
-        <v>45866</v>
+        <v>312</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="36">
+      <c r="A169" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="36">
       <c r="A170" s="3" t="s">
-        <v>452</v>
+        <v>285</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="C170" s="16">
-        <v>45866</v>
+        <v>433</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="3" t="s">
-        <v>452</v>
+        <v>557</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>470</v>
+        <v>558</v>
       </c>
       <c r="C171" s="16">
-        <v>45866</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="C172" s="16">
-        <v>45866</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="36">
-      <c r="A173" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="C173" s="16">
-        <v>45866</v>
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="54">
+      <c r="A172" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="54">
+      <c r="A173" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="36">
       <c r="A174" s="3" t="s">
-        <v>452</v>
+        <v>41</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="C174" s="16">
-        <v>45866</v>
+        <v>63</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="36">
       <c r="A175" s="3" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="C175" s="16">
-        <v>45866</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="54">
       <c r="A176" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>473</v>
+        <v>434</v>
+      </c>
+      <c r="B176" s="17" t="s">
+        <v>542</v>
       </c>
       <c r="C176" s="16">
-        <v>45866</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="36">
       <c r="A177" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="C177" s="16">
-        <v>45866</v>
+        <v>90</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="36">
       <c r="A178" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="C178" s="16">
-        <v>45866</v>
+        <v>281</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="36">
-      <c r="A179" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="C179" s="16">
-        <v>45866</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="36">
+      <c r="A179" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="C180" s="16">
         <v>45866</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="36">
+    <row r="181" spans="1:3">
       <c r="A181" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="C181" s="16">
         <v>45866</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="36">
+    <row r="182" spans="1:3">
       <c r="A182" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>479</v>
+        <v>450</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>457</v>
       </c>
       <c r="C182" s="16">
         <v>45866</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="36">
+    <row r="183" spans="1:3">
       <c r="A183" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C183" s="16">
         <v>45866</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="36">
+    <row r="184" spans="1:3">
       <c r="A184" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>480</v>
+        <v>450</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="C184" s="16">
         <v>45866</v>
@@ -15094,10 +15155,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="C185" s="16">
         <v>45866</v>
@@ -15105,32 +15166,32 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="C186" s="16">
         <v>45866</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="36">
+    <row r="187" spans="1:3">
       <c r="A187" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>483</v>
+        <v>450</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="C187" s="16">
         <v>45866</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" ht="36">
       <c r="A188" s="3" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="C188" s="16">
         <v>45866</v>
@@ -15138,65 +15199,65 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="3" t="s">
-        <v>485</v>
+        <v>450</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="C189" s="16">
         <v>45866</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="B190" s="15" t="s">
-        <v>490</v>
+    <row r="190" spans="1:3" ht="36">
+      <c r="A190" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="C190" s="16">
         <v>45866</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="54">
-      <c r="A191" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="B191" s="13" t="s">
-        <v>493</v>
+    <row r="191" spans="1:3">
+      <c r="A191" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="B191" s="19" t="s">
+        <v>466</v>
       </c>
       <c r="C191" s="16">
         <v>45866</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="54">
-      <c r="A192" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>494</v>
+    <row r="192" spans="1:3" ht="36">
+      <c r="A192" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>467</v>
       </c>
       <c r="C192" s="16">
         <v>45866</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="54">
-      <c r="A193" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>499</v>
+    <row r="193" spans="1:3">
+      <c r="A193" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>469</v>
       </c>
       <c r="C193" s="16">
         <v>45866</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="36">
-      <c r="A194" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>500</v>
+    <row r="194" spans="1:3">
+      <c r="A194" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>468</v>
       </c>
       <c r="C194" s="16">
         <v>45866</v>
@@ -15204,10 +15265,10 @@
     </row>
     <row r="195" spans="1:3" ht="36">
       <c r="A195" s="3" t="s">
-        <v>497</v>
+        <v>451</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="C195" s="16">
         <v>45866</v>
@@ -15215,10 +15276,10 @@
     </row>
     <row r="196" spans="1:3" ht="36">
       <c r="A196" s="3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>501</v>
+        <v>452</v>
       </c>
       <c r="C196" s="16">
         <v>45866</v>
@@ -15226,21 +15287,21 @@
     </row>
     <row r="197" spans="1:3" ht="36">
       <c r="A197" s="3" t="s">
-        <v>502</v>
+        <v>451</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
       <c r="C197" s="16">
         <v>45866</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="36">
+    <row r="198" spans="1:3">
       <c r="A198" s="3" t="s">
-        <v>504</v>
+        <v>451</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="C198" s="16">
         <v>45866</v>
@@ -15248,10 +15309,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>506</v>
+        <v>451</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>473</v>
       </c>
       <c r="C199" s="16">
         <v>45866</v>
@@ -15259,32 +15320,32 @@
     </row>
     <row r="200" spans="1:3" ht="36">
       <c r="A200" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>508</v>
+        <v>453</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>474</v>
       </c>
       <c r="C200" s="16">
         <v>45866</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="72">
+    <row r="201" spans="1:3" ht="36">
       <c r="A201" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>510</v>
+        <v>453</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>475</v>
       </c>
       <c r="C201" s="16">
         <v>45866</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="54">
+    <row r="202" spans="1:3" ht="36">
       <c r="A202" s="3" t="s">
-        <v>511</v>
+        <v>453</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="C202" s="16">
         <v>45866</v>
@@ -15292,10 +15353,10 @@
     </row>
     <row r="203" spans="1:3" ht="36">
       <c r="A203" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>516</v>
+        <v>453</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>477</v>
       </c>
       <c r="C203" s="16">
         <v>45866</v>
@@ -15303,21 +15364,21 @@
     </row>
     <row r="204" spans="1:3" ht="36">
       <c r="A204" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>518</v>
+        <v>453</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>478</v>
       </c>
       <c r="C204" s="16">
         <v>45866</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" ht="36">
       <c r="A205" s="3" t="s">
-        <v>519</v>
+        <v>453</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>522</v>
+        <v>454</v>
       </c>
       <c r="C205" s="16">
         <v>45866</v>
@@ -15325,10 +15386,10 @@
     </row>
     <row r="206" spans="1:3" ht="36">
       <c r="A206" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>521</v>
+        <v>453</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>479</v>
       </c>
       <c r="C206" s="16">
         <v>45866</v>
@@ -15336,228 +15397,169 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="3" t="s">
-        <v>524</v>
+        <v>453</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>523</v>
+        <v>480</v>
       </c>
       <c r="C207" s="16">
         <v>45866</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="36">
+    <row r="208" spans="1:3">
       <c r="A208" s="3" t="s">
-        <v>525</v>
+        <v>453</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>526</v>
+        <v>481</v>
       </c>
       <c r="C208" s="16">
-        <v>45867</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="72">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="36">
       <c r="A209" s="3" t="s">
-        <v>527</v>
+        <v>453</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="C209" s="16">
-        <v>45867</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="36">
-      <c r="A210" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="C210" s="16">
-        <v>45867</v>
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="54">
+      <c r="A210" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="36">
       <c r="A211" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="C211" s="16">
-        <v>45867</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="17" t="s">
-        <v>532</v>
-      </c>
-      <c r="B212" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="C212" s="16">
-        <v>45867</v>
+        <v>108</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="36">
+      <c r="A212" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="36">
-      <c r="A213" s="17" t="s">
-        <v>534</v>
+      <c r="A213" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="C213" s="16">
-        <v>45867</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B214" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="C214" s="16">
-        <v>45867</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="36">
+      <c r="A214" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="36">
       <c r="A215" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="C215" s="16">
-        <v>45867</v>
+        <v>300</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="36">
-      <c r="A216" s="3" t="s">
-        <v>539</v>
+      <c r="A216" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="C216" s="16">
-        <v>45867</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="54">
-      <c r="A217" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="B217" s="17" t="s">
-        <v>543</v>
-      </c>
-      <c r="C217" s="16">
-        <v>45867</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="36">
+      <c r="A217" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="36">
       <c r="A218" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B218" s="17" t="s">
-        <v>542</v>
-      </c>
-      <c r="C218" s="16">
-        <v>45867</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+        <v>131</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="36">
       <c r="A219" s="3" t="s">
-        <v>549</v>
+        <v>54</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="C219" s="16">
-        <v>45867</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="36">
       <c r="A220" s="3" t="s">
-        <v>550</v>
+        <v>53</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="C220" s="16">
-        <v>45867</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="36">
       <c r="A221" s="3" t="s">
-        <v>552</v>
+        <v>133</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="C221" s="16">
-        <v>45867</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="36">
       <c r="A222" s="3" t="s">
-        <v>555</v>
+        <v>257</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="C222" s="16">
-        <v>45867</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="36">
       <c r="A223" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="C223" s="16">
-        <v>45867</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="C224" s="16">
-        <v>45867</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="36">
-      <c r="A225" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C225" s="16">
-        <v>45867</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="54">
-      <c r="A226" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="C226" s="16">
-        <v>45867</v>
+        <v>278</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="36">
+      <c r="A224" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="36">
+      <c r="A225" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B224" xr:uid="{7A2D46C5-3DDE-40A5-80A5-A39BBA168069}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B164">
-    <sortCondition ref="A2:A164"/>
+  <autoFilter ref="A1:C225" xr:uid="{7A2D46C5-3DDE-40A5-80A5-A39BBA168069}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C225">
+    <sortCondition ref="A2:A225"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16434,170 +16436,170 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>394</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/scs.xlsx
+++ b/scs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arwml\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73D1579-B83B-4E46-9A39-786E87A92759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CB95BB-179F-42AB-AE01-DDAFCAD4CD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="430" windowWidth="18110" windowHeight="20560" xr2:uid="{67019B03-F1A0-410D-9686-FED7C8D87B25}"/>
+    <workbookView xWindow="620" yWindow="270" windowWidth="18110" windowHeight="20560" xr2:uid="{67019B03-F1A0-410D-9686-FED7C8D87B25}"/>
   </bookViews>
   <sheets>
     <sheet name="単語" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="610">
   <si>
     <t>Audit Manager</t>
   </si>
@@ -5256,7 +5256,7 @@
   </si>
   <si>
     <r>
-      <t>PutBucketPolicy : S3</t>
+      <t xml:space="preserve">ConsoleLogin : </t>
     </r>
     <r>
       <rPr>
@@ -5266,13 +5266,23 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>バケットポリシーの変更</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ConsoleLogin : </t>
+      <t>マネジメントコンソールへのログイン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>履歴</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CreateTrail : </t>
     </r>
     <r>
       <rPr>
@@ -5282,49 +5292,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>マネジメントコンソールへのログイン</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>履歴</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CreateTrail : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
       <t>CloudTrail自体の作成・変更</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>UpdateFunctionCode : Lambda関数の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>コード変更</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -6701,59 +6669,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>通信セッションごとに</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>一時鍵を生成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>する暗号方式。過去のセッション鍵が漏洩しても、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>過去の通信内容を復号できない</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ため、高い安全性を確保できる。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>S3 / CloudWatch Logs / OpenSearch</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Data Firehoseの宛先</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WAF</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6908,6 +6832,543 @@
       </rPr>
       <t>。IAMポリシーにタグなどの属性を使い、柔軟かつ動的なアクセス制御を実現。大規模組織で有効。</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Workspaces</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮想デスクトップ。クライアント証明書が必要。</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SAMLフェデレーションABAC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>IdPから</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Conditions : Principal Tag </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>でタグを受け取れるIAMロールが必要。</t>
+    </r>
+    <rPh sb="36" eb="37">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">configマネージドルール </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>configマネージドルール の連携</t>
+    <rPh sb="16" eb="18">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>configマネージドルール →EventBridge→Lambda ／SSM Automation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレデンシャルレポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>generate credential reportの直後は "Report In Progress"となるので、この状態ではConfigはNOT_COMPLIANT</t>
+    <rPh sb="27" eb="29">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ無し</t>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudTrail無効</t>
+    <rPh sb="10" eb="12">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3バケット公開</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インバウンドアクセス 0.0.0.0/0  sg,  ssh, RDP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログファイル改ざん</t>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルートユーザー MFA無効</t>
+    <rPh sb="11" eb="13">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EC2インスタンスにパブリックIP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ACM証明書期限切れ</t>
+    <rPh sb="3" eb="6">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>キゲンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IAMユーザー  インラインポリシー ／90日使われてない</t>
+    <rPh sb="22" eb="23">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Route53 Resolver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3へ直接ログ保管OK</t>
+    <rPh sb="3" eb="5">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Auto Scalingグループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレートにCloud Watch Logsのエージェントを組み込む。</t>
+    <rPh sb="31" eb="32">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>PutBucketPolicy : S3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バケットポリシーの変更、データイベント</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WAF </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Web ACLにレートベースルール適用。閾値を超えたIPブロック。</t>
+    <rPh sb="17" eb="19">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シキイチ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末からのログ収集</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末→DataStream→OpenSearchService
+端末→DataFirehose→OpenSearchService</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudFront, ALB, API Gateway, AppSync に対応</t>
+    <rPh sb="39" eb="41">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログ集中保管</t>
+    <rPh sb="2" eb="4">
+      <t>シュウチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悪意あるIPアドレスを遮断</t>
+    <rPh sb="0" eb="2">
+      <t>アクイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シャダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GuardDuty → EventBridge → StepFunctionsでLambda起動</t>
+    <rPh sb="46" eb="48">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">各アカウントのCloudWatch Logs 
+    → ログアカのData Firehose → S3 </t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rootユーザ操作を検出</t>
+    <rPh sb="7" eb="9">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Organizations Trail -&gt; EventBridge -&gt; SNS トピ
+CloudTrail -&gt; EventBridge -&gt; SNS トピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリプトシュレッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポートしたCMKのキー素材を消去する。
+Delete Imported KeyMaterial</t>
+    <rPh sb="13" eb="15">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPCピアリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルートテーブルに相手へのルート記入必要
+10.30.0.0/17   PCX-A(ピアリング接続ポイント)</t>
+    <rPh sb="8" eb="10">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Organizationsで putOrganizationConfigRule</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cofingルールの展開</t>
+    <rPh sb="10" eb="12">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CMK複合チェック</t>
+    <rPh sb="3" eb="5">
+      <t>フクゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CＭＫキーポリシーで </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>EncryptionContextの条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をつけ、値をチェックすることでコンテキストチェックと改ざんチェックとなる</t>
+    </r>
+    <rPh sb="29" eb="31">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>UpdateFunctionCode : Lambda関数の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コード変更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Lambdaの実行（データイベント）</t>
+    </r>
+    <rPh sb="43" eb="45">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KMSキーローテーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポートCMKは自動ローテ不可。
+CMKは デフォルト1年。 90日～7年の範囲で設定可。
+AWS管理のキーは1年。変更不可。</t>
+    <rPh sb="9" eb="11">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABAC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">principalTag = ResourceTagで判定。 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>新しいリソース増えてもポリシー変更不要</t>
+    </r>
+    <rPh sb="27" eb="29">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>通信セッションごとに</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一時鍵を生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>する暗号方式。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">過去の通信内容を復号できない。 鍵交換ｱﾙｺﾞ： DHE / ECDHE </t>
+    </r>
+    <rPh sb="39" eb="42">
+      <t>カギコウカン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7059,7 +7520,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7096,12 +7557,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7115,9 +7570,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13535,18 +13987,19 @@
     <tabColor theme="7" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C225"/>
+  <dimension ref="A1:C252"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F216" sqref="F216"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="26.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="54" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.08203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="7.08203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13556,8 +14009,8 @@
       <c r="B1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>512</v>
+      <c r="C1" s="14" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36">
@@ -13565,7 +14018,7 @@
         <v>383</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36">
@@ -13581,9 +14034,9 @@
         <v>447</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="C4" s="16">
+        <v>498</v>
+      </c>
+      <c r="C4" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -13597,23 +14050,23 @@
     </row>
     <row r="6" spans="1:3" ht="36">
       <c r="A6" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="C6" s="16">
+        <v>523</v>
+      </c>
+      <c r="C6" s="14">
         <v>45867</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="C7" s="16">
+        <v>520</v>
+      </c>
+      <c r="C7" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -13643,12 +14096,12 @@
     </row>
     <row r="11" spans="1:3" ht="36">
       <c r="A11" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="C11" s="16">
+        <v>527</v>
+      </c>
+      <c r="C11" s="14">
         <v>45867</v>
       </c>
     </row>
@@ -13726,23 +14179,23 @@
     </row>
     <row r="21" spans="1:3" ht="36">
       <c r="A21" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C21" s="16">
+        <v>513</v>
+      </c>
+      <c r="C21" s="14">
         <v>45866</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="C22" s="16">
+        <v>551</v>
+      </c>
+      <c r="C22" s="14">
         <v>45867</v>
       </c>
     </row>
@@ -13780,12 +14233,12 @@
     </row>
     <row r="27" spans="1:3" ht="72">
       <c r="A27" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="C27" s="16">
+        <v>507</v>
+      </c>
+      <c r="C27" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -13815,12 +14268,12 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="C31" s="16">
+        <v>534</v>
+      </c>
+      <c r="C31" s="14">
         <v>45867</v>
       </c>
     </row>
@@ -13834,12 +14287,12 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="C33" s="16">
+        <v>554</v>
+      </c>
+      <c r="C33" s="14">
         <v>45867</v>
       </c>
     </row>
@@ -13869,12 +14322,12 @@
     </row>
     <row r="37" spans="1:3" ht="36">
       <c r="A37" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="C37" s="16">
+        <v>505</v>
+      </c>
+      <c r="C37" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -13896,34 +14349,34 @@
     </row>
     <row r="40" spans="1:3" ht="54">
       <c r="A40" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C40" s="16">
+        <v>496</v>
+      </c>
+      <c r="C40" s="14">
         <v>45866</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="36">
       <c r="A41" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="C41" s="16">
+        <v>497</v>
+      </c>
+      <c r="C41" s="14">
         <v>45866</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="54">
-      <c r="A42" s="18" t="s">
-        <v>490</v>
+      <c r="A42" s="16" t="s">
+        <v>488</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="C42" s="16">
+        <v>491</v>
+      </c>
+      <c r="C42" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -13953,12 +14406,12 @@
     </row>
     <row r="46" spans="1:3" ht="36">
       <c r="A46" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="C46" s="16">
+        <v>495</v>
+      </c>
+      <c r="C46" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -13988,23 +14441,23 @@
     </row>
     <row r="50" spans="1:3" ht="36">
       <c r="A50" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="C50" s="16">
+        <v>518</v>
+      </c>
+      <c r="C50" s="14">
         <v>45866</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="C51" s="16">
+        <v>519</v>
+      </c>
+      <c r="C51" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -14026,23 +14479,23 @@
     </row>
     <row r="54" spans="1:3" ht="36">
       <c r="A54" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="C54" s="16">
+        <v>535</v>
+      </c>
+      <c r="C54" s="14">
         <v>45867</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="54">
       <c r="A55" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C55" s="16">
+        <v>560</v>
+      </c>
+      <c r="C55" s="14">
         <v>45867</v>
       </c>
     </row>
@@ -14064,12 +14517,12 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="C58" s="16">
+        <v>544</v>
+      </c>
+      <c r="C58" s="14">
         <v>45867</v>
       </c>
     </row>
@@ -14091,12 +14544,12 @@
     </row>
     <row r="61" spans="1:3" ht="54">
       <c r="A61" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="C61" s="16">
+        <v>509</v>
+      </c>
+      <c r="C61" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -14121,7 +14574,7 @@
         <v>264</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="36">
@@ -14182,12 +14635,12 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="C72" s="16">
+        <v>486</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="C72" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -14208,13 +14661,13 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="54">
-      <c r="A75" s="18" t="s">
-        <v>491</v>
+      <c r="A75" s="16" t="s">
+        <v>489</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="C75" s="16">
+        <v>490</v>
+      </c>
+      <c r="C75" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -14260,12 +14713,12 @@
     </row>
     <row r="81" spans="1:3" ht="72">
       <c r="A81" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="C81" s="16">
+        <v>525</v>
+      </c>
+      <c r="C81" s="14">
         <v>45867</v>
       </c>
     </row>
@@ -14295,7 +14748,7 @@
     </row>
     <row r="85" spans="1:3" ht="54">
       <c r="A85" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>147</v>
@@ -14313,18 +14766,18 @@
       <c r="A87" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="12" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="36">
       <c r="A88" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="C88" s="16">
+        <v>559</v>
+      </c>
+      <c r="C88" s="14">
         <v>45867</v>
       </c>
     </row>
@@ -14418,12 +14871,12 @@
     </row>
     <row r="100" spans="1:3" ht="36">
       <c r="A100" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="C100" s="16">
+        <v>502</v>
+      </c>
+      <c r="C100" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -14447,10 +14900,10 @@
       <c r="A103" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B103" s="17" t="s">
-        <v>541</v>
-      </c>
-      <c r="C103" s="16">
+      <c r="B103" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="C103" s="14">
         <v>45867</v>
       </c>
     </row>
@@ -14483,28 +14936,28 @@
         <v>280</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="36">
       <c r="A108" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="C108" s="16">
+        <v>537</v>
+      </c>
+      <c r="C108" s="14">
         <v>45867</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="36">
       <c r="A109" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="C109" s="16">
+      <c r="C109" s="14">
         <v>45867</v>
       </c>
     </row>
@@ -14513,7 +14966,7 @@
         <v>263</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="36">
@@ -14524,12 +14977,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="54">
+    <row r="112" spans="1:3" ht="36">
       <c r="A112" s="4" t="s">
         <v>427</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>546</v>
+        <v>609</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="36">
@@ -14557,13 +15010,13 @@
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="17" t="s">
-        <v>531</v>
+      <c r="A116" s="15" t="s">
+        <v>529</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="C116" s="16">
+        <v>530</v>
+      </c>
+      <c r="C116" s="14">
         <v>45867</v>
       </c>
     </row>
@@ -14641,12 +15094,12 @@
     </row>
     <row r="126" spans="1:3" ht="36">
       <c r="A126" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="C126" s="16">
+        <v>500</v>
+      </c>
+      <c r="C126" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -14699,35 +15152,35 @@
       </c>
     </row>
     <row r="133" spans="1:3" ht="36">
-      <c r="A133" s="17" t="s">
-        <v>533</v>
+      <c r="A133" s="15" t="s">
+        <v>531</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="C133" s="16">
+        <v>532</v>
+      </c>
+      <c r="C133" s="14">
         <v>45867</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="C134" s="16">
+        <v>484</v>
+      </c>
+      <c r="C134" s="14">
         <v>45866</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="C135" s="16">
+        <v>483</v>
+      </c>
+      <c r="C135" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -14802,12 +15255,12 @@
     </row>
     <row r="145" spans="1:3" ht="36">
       <c r="A145" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="C145" s="16">
+        <v>515</v>
+      </c>
+      <c r="C145" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -14893,12 +15346,12 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="C156" s="16">
+        <v>548</v>
+      </c>
+      <c r="C156" s="14">
         <v>45867</v>
       </c>
     </row>
@@ -14912,12 +15365,12 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="C158" s="16">
+        <v>503</v>
+      </c>
+      <c r="C158" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -14979,12 +15432,12 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="C166" s="16">
+        <v>550</v>
+      </c>
+      <c r="C166" s="14">
         <v>45867</v>
       </c>
     </row>
@@ -15022,12 +15475,12 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="C171" s="16">
+        <v>556</v>
+      </c>
+      <c r="C171" s="14">
         <v>45867</v>
       </c>
     </row>
@@ -15067,10 +15520,10 @@
       <c r="A176" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B176" s="17" t="s">
-        <v>542</v>
-      </c>
-      <c r="C176" s="16">
+      <c r="B176" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="C176" s="14">
         <v>45867</v>
       </c>
     </row>
@@ -15105,7 +15558,7 @@
       <c r="B180" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="C180" s="16">
+      <c r="C180" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15116,7 +15569,7 @@
       <c r="B181" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C181" s="16">
+      <c r="C181" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15127,7 +15580,7 @@
       <c r="B182" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C182" s="16">
+      <c r="C182" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15136,9 +15589,9 @@
         <v>450</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C183" s="16">
+        <v>584</v>
+      </c>
+      <c r="C183" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15147,9 +15600,9 @@
         <v>450</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="C184" s="16">
+        <v>458</v>
+      </c>
+      <c r="C184" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15158,20 +15611,20 @@
         <v>450</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="C185" s="16">
+        <v>459</v>
+      </c>
+      <c r="C185" s="14">
         <v>45866</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" ht="36">
       <c r="A186" s="3" t="s">
         <v>450</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="C186" s="16">
+        <v>604</v>
+      </c>
+      <c r="C186" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15180,9 +15633,9 @@
         <v>450</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="C187" s="16">
+        <v>460</v>
+      </c>
+      <c r="C187" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15191,9 +15644,9 @@
         <v>450</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="C188" s="16">
+        <v>461</v>
+      </c>
+      <c r="C188" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15202,31 +15655,31 @@
         <v>450</v>
       </c>
       <c r="B189" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C189" s="14">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="36">
+      <c r="A190" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C190" s="14">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B191" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="C189" s="16">
-        <v>45866</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="36">
-      <c r="A190" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="B190" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="C190" s="16">
-        <v>45866</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="B191" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="C191" s="16">
+      <c r="C191" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15235,9 +15688,9 @@
         <v>451</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="C192" s="16">
+        <v>465</v>
+      </c>
+      <c r="C192" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15246,9 +15699,9 @@
         <v>451</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="C193" s="16">
+        <v>467</v>
+      </c>
+      <c r="C193" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15257,9 +15710,9 @@
         <v>451</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="C194" s="16">
+        <v>466</v>
+      </c>
+      <c r="C194" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15268,9 +15721,9 @@
         <v>451</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="C195" s="16">
+        <v>468</v>
+      </c>
+      <c r="C195" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15281,7 +15734,7 @@
       <c r="B196" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C196" s="16">
+      <c r="C196" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15290,9 +15743,9 @@
         <v>451</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="C197" s="16">
+        <v>469</v>
+      </c>
+      <c r="C197" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15301,9 +15754,9 @@
         <v>451</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="C198" s="16">
+        <v>470</v>
+      </c>
+      <c r="C198" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15312,9 +15765,9 @@
         <v>451</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="C199" s="16">
+        <v>471</v>
+      </c>
+      <c r="C199" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15323,9 +15776,9 @@
         <v>453</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="C200" s="16">
+        <v>472</v>
+      </c>
+      <c r="C200" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15334,9 +15787,9 @@
         <v>453</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="C201" s="16">
+        <v>473</v>
+      </c>
+      <c r="C201" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15345,9 +15798,9 @@
         <v>453</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="C202" s="16">
+        <v>474</v>
+      </c>
+      <c r="C202" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15356,9 +15809,9 @@
         <v>453</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="C203" s="16">
+        <v>475</v>
+      </c>
+      <c r="C203" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15367,9 +15820,9 @@
         <v>453</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="C204" s="16">
+        <v>476</v>
+      </c>
+      <c r="C204" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15380,7 +15833,7 @@
       <c r="B205" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C205" s="16">
+      <c r="C205" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15389,9 +15842,9 @@
         <v>453</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="C206" s="16">
+        <v>477</v>
+      </c>
+      <c r="C206" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15400,9 +15853,9 @@
         <v>453</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="C207" s="16">
+        <v>478</v>
+      </c>
+      <c r="C207" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15411,9 +15864,9 @@
         <v>453</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="C208" s="16">
+        <v>479</v>
+      </c>
+      <c r="C208" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15422,9 +15875,9 @@
         <v>453</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="C209" s="16">
+        <v>480</v>
+      </c>
+      <c r="C209" s="14">
         <v>45866</v>
       </c>
     </row>
@@ -15465,7 +15918,7 @@
         <v>299</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="36">
@@ -15548,12 +16001,309 @@
         <v>272</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="36">
+    <row r="225" spans="1:3" ht="36">
       <c r="A225" s="4" t="s">
         <v>375</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>376</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C226" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="36">
+      <c r="A227" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C227" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="C228" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C229" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="C230" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C231" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="C232" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="C233" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C234" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="C235" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="C236" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="36">
+      <c r="A237" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C237" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="36">
+      <c r="A238" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C238" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C239" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C240" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="36">
+      <c r="A241" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C241" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="36">
+      <c r="A242" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C242" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C243" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="36">
+      <c r="A244" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C244" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C245" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="36">
+      <c r="A246" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C246" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="36">
+      <c r="A247" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C247" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="36">
+      <c r="A248" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B248" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="C248" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C249" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="54">
+      <c r="A250" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C250" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="54">
+      <c r="A251" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C251" s="14">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="36">
+      <c r="A252" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C252" s="14">
+        <v>45868</v>
       </c>
     </row>
   </sheetData>
